--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-VW-verkeerskundewegen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-VW-verkeerskundewegen.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FA257759-E773-48D4-B54F-5730734FF47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2FA81EC0-70C5-4302-90C3-DED3771ACC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1BF9FB84-4CD0-4925-8B50-991F9D9B8998}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A31F6CF3-08B0-4B64-B5DF-F379028B4139}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-VW-verkeer" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-VW-verkeer'!$A$1:$AJ$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-VW-verkeer'!$A$1:$AJ$100</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="165">
   <si>
     <t>hoofdgroep</t>
   </si>
@@ -136,7 +136,7 @@
     <t>VW</t>
   </si>
   <si>
-    <t>POLLER_KAST</t>
+    <t>VERKEERSTEKEN_BORD</t>
   </si>
   <si>
     <t>*</t>
@@ -157,9 +157,6 @@
     <t>V-CONTINUOUS-SO</t>
   </si>
   <si>
-    <t>VERKEERSTEKEN_BORD</t>
-  </si>
-  <si>
     <t>VERKEERSTEKEN_TRAMSIGNALERING</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
     <t>AFZETTING_POLLER_VAST</t>
   </si>
   <si>
+    <t>AFZETTING_POLLER_KAST</t>
+  </si>
+  <si>
     <t>AFZETTING_POLLER_SCANPAAL</t>
   </si>
   <si>
@@ -205,9 +205,6 @@
     <t>BLINDENGELEIDEROUTE_WAARSCHUWINGSTEGEL</t>
   </si>
   <si>
-    <t>POLLER</t>
-  </si>
-  <si>
     <t>BEWEGWIJZERING</t>
   </si>
   <si>
@@ -301,6 +298,12 @@
     <t>0.13</t>
   </si>
   <si>
+    <t>MARKERING_DWARS_STOPSTREEP_050</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
     <t>MARKERING_DWARS_OVERSTEEK_KANALISATIESTREEP50</t>
   </si>
   <si>
@@ -310,6 +313,9 @@
     <t>V-VW-5050_STREEP</t>
   </si>
   <si>
+    <t>MARKERING_DWARS_OVERSTEEK_BLOKSTREEP</t>
+  </si>
+  <si>
     <t>MARKERING_DWARS_OVERSTEEK_VOETGANGERS</t>
   </si>
   <si>
@@ -439,9 +445,6 @@
     <t>MARKERING_LANGS_STREEP_13_045</t>
   </si>
   <si>
-    <t>0.50</t>
-  </si>
-  <si>
     <t>MARKERING_LANGS_STREEP_11_010</t>
   </si>
   <si>
@@ -460,6 +463,9 @@
     <t>MARKERING_LANGS_STREEP_31_010</t>
   </si>
   <si>
+    <t>MARKERING_LANGS_STREEP_DOORGETROKKEN_045</t>
+  </si>
+  <si>
     <t>MARKERING_LANGS_STREEP_DOORGETROKKEN_015</t>
   </si>
   <si>
@@ -512,15 +518,6 @@
   </si>
   <si>
     <t>AFZETTING</t>
-  </si>
-  <si>
-    <t>MARKERING_DWARS_OVERSTEEK_BLOKSTREEP</t>
-  </si>
-  <si>
-    <t>MARKERING_DWARS_STOPSTREEP_050</t>
-  </si>
-  <si>
-    <t>MARKERING_LANGS_STREEP_DOORGETROKKEN_045</t>
   </si>
 </sst>
 </file>
@@ -1380,11 +1377,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5057C41D-1D45-4D69-840E-70ED36E64F63}">
-  <dimension ref="A1:AJ101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE88145-C812-4B09-B39B-D607FE3974EC}">
+  <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1510,7 +1507,7 @@
         <v>2657</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -1611,7 +1608,7 @@
         <v>3473</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>2657</v>
@@ -1715,7 +1712,7 @@
         <v>3344</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>2657</v>
@@ -1920,10 +1917,10 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>3346</v>
+        <v>3122</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>3344</v>
@@ -2024,10 +2021,10 @@
         <v>36</v>
       </c>
       <c r="B7">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>3344</v>
@@ -2128,10 +2125,10 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>3344</v>
@@ -2232,10 +2229,13 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>2553</v>
+        <v>3348</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>3344</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -2333,13 +2333,10 @@
         <v>36</v>
       </c>
       <c r="B10">
-        <v>2560</v>
+        <v>2553</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10">
-        <v>2553</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -2437,10 +2434,10 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>2553</v>
@@ -2541,13 +2538,13 @@
         <v>36</v>
       </c>
       <c r="B12">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>2564</v>
+        <v>2553</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -2645,13 +2642,13 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D13">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -2749,13 +2746,13 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="D14">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
@@ -2853,13 +2850,13 @@
         <v>36</v>
       </c>
       <c r="B15">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="D15">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="E15" t="s">
         <v>38</v>
@@ -2957,13 +2954,13 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>2554</v>
+        <v>2568</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="D16">
-        <v>2553</v>
+        <v>2567</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
@@ -3061,7 +3058,7 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>2559</v>
+        <v>2554</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -3165,10 +3162,10 @@
         <v>36</v>
       </c>
       <c r="B18">
-        <v>2555</v>
+        <v>2559</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D18">
         <v>2553</v>
@@ -3269,10 +3266,10 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>2563</v>
+        <v>2555</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D19">
         <v>2553</v>
@@ -3373,10 +3370,10 @@
         <v>36</v>
       </c>
       <c r="B20">
-        <v>2556</v>
+        <v>2563</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20">
         <v>2553</v>
@@ -3477,13 +3474,13 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D21">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
@@ -3581,7 +3578,7 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C22" t="s">
         <v>84</v>
@@ -3685,13 +3682,13 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D23">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
@@ -3789,10 +3786,13 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>3349</v>
+        <v>2561</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>72</v>
+      </c>
+      <c r="D24">
+        <v>2553</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
@@ -3804,16 +3804,16 @@
         <v>40</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I24">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="J24">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="K24">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L24">
         <v>253</v>
@@ -3825,16 +3825,16 @@
         <v>42</v>
       </c>
       <c r="O24">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="P24">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="R24">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="S24">
         <v>253</v>
@@ -3846,16 +3846,16 @@
         <v>42</v>
       </c>
       <c r="V24">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="W24">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="X24">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="Y24">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="Z24">
         <v>253</v>
@@ -3867,16 +3867,16 @@
         <v>42</v>
       </c>
       <c r="AC24">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AD24">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="AE24">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AF24">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AG24">
         <v>253</v>
@@ -3889,11 +3889,11 @@
       <c r="A25" t="s">
         <v>36</v>
       </c>
+      <c r="B25">
+        <v>3349</v>
+      </c>
       <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25">
-        <v>3349</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
@@ -3991,7 +3991,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26">
         <v>3349</v>
@@ -4092,7 +4092,7 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27">
         <v>3349</v>
@@ -4192,11 +4192,11 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28">
-        <v>2641</v>
-      </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <v>3349</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
@@ -4208,16 +4208,16 @@
         <v>40</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I28">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="K28">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L28">
         <v>253</v>
@@ -4229,16 +4229,16 @@
         <v>42</v>
       </c>
       <c r="O28">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="P28">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="R28">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="S28">
         <v>253</v>
@@ -4250,16 +4250,16 @@
         <v>42</v>
       </c>
       <c r="V28">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="W28">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="X28">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="Y28">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="Z28">
         <v>253</v>
@@ -4271,16 +4271,16 @@
         <v>42</v>
       </c>
       <c r="AC28">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AD28">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="AE28">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AF28">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AG28">
         <v>253</v>
@@ -4294,10 +4294,10 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>2569</v>
+        <v>2641</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
@@ -4321,7 +4321,7 @@
         <v>7</v>
       </c>
       <c r="L29">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s">
         <v>41</v>
@@ -4342,7 +4342,7 @@
         <v>7</v>
       </c>
       <c r="S29">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="T29" t="s">
         <v>41</v>
@@ -4363,7 +4363,7 @@
         <v>7</v>
       </c>
       <c r="Z29">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AA29" t="s">
         <v>41</v>
@@ -4384,7 +4384,7 @@
         <v>7</v>
       </c>
       <c r="AG29">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="AH29" t="s">
         <v>43</v>
@@ -4395,13 +4395,10 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>2577</v>
+        <v>2569</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30">
-        <v>2569</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
@@ -4499,10 +4496,10 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <v>2569</v>
@@ -4603,10 +4600,10 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>2618</v>
+        <v>2575</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D32">
         <v>2569</v>
@@ -4707,13 +4704,13 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D33">
-        <v>2618</v>
+        <v>2569</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
@@ -4803,7 +4800,7 @@
         <v>7</v>
       </c>
       <c r="AH33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
@@ -4811,10 +4808,10 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>2629</v>
+        <v>2619</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D34">
         <v>2618</v>
@@ -4907,7 +4904,7 @@
         <v>7</v>
       </c>
       <c r="AH34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
@@ -4915,13 +4912,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>2635</v>
+        <v>2629</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="D35">
-        <v>2629</v>
+        <v>2618</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
@@ -4930,7 +4927,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>7</v>
@@ -4949,6 +4946,69 @@
       </c>
       <c r="M35" t="s">
         <v>41</v>
+      </c>
+      <c r="N35" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35">
+        <v>7</v>
+      </c>
+      <c r="P35">
+        <v>7</v>
+      </c>
+      <c r="Q35">
+        <v>7</v>
+      </c>
+      <c r="R35">
+        <v>7</v>
+      </c>
+      <c r="S35">
+        <v>7</v>
+      </c>
+      <c r="T35" t="s">
+        <v>41</v>
+      </c>
+      <c r="U35" t="s">
+        <v>42</v>
+      </c>
+      <c r="V35">
+        <v>7</v>
+      </c>
+      <c r="W35">
+        <v>7</v>
+      </c>
+      <c r="X35">
+        <v>7</v>
+      </c>
+      <c r="Y35">
+        <v>7</v>
+      </c>
+      <c r="Z35">
+        <v>7</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC35">
+        <v>7</v>
+      </c>
+      <c r="AD35">
+        <v>7</v>
+      </c>
+      <c r="AE35">
+        <v>7</v>
+      </c>
+      <c r="AF35">
+        <v>7</v>
+      </c>
+      <c r="AG35">
+        <v>7</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
@@ -4956,10 +5016,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2631</v>
+        <v>2635</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D36">
         <v>2629</v>
@@ -4971,7 +5031,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36">
         <v>7</v>
@@ -4989,10 +5049,10 @@
         <v>7</v>
       </c>
       <c r="M36" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="N36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O36">
         <v>7</v>
@@ -5010,10 +5070,10 @@
         <v>7</v>
       </c>
       <c r="T36" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="U36" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="V36">
         <v>7</v>
@@ -5031,10 +5091,10 @@
         <v>7</v>
       </c>
       <c r="AA36" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="AB36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC36">
         <v>7</v>
@@ -5052,7 +5112,7 @@
         <v>7</v>
       </c>
       <c r="AH36" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
@@ -5060,13 +5120,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D37">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
@@ -5075,7 +5135,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37">
         <v>7</v>
@@ -5093,10 +5153,10 @@
         <v>7</v>
       </c>
       <c r="M37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37">
         <v>7</v>
@@ -5114,10 +5174,10 @@
         <v>7</v>
       </c>
       <c r="T37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37">
         <v>7</v>
@@ -5135,10 +5195,10 @@
         <v>7</v>
       </c>
       <c r="AA37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37">
         <v>7</v>
@@ -5156,7 +5216,7 @@
         <v>7</v>
       </c>
       <c r="AH37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
@@ -5164,10 +5224,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3550</v>
+        <v>2632</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D38">
         <v>2631</v>
@@ -5179,7 +5239,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H38">
         <v>7</v>
@@ -5197,10 +5257,10 @@
         <v>7</v>
       </c>
       <c r="M38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N38" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="O38">
         <v>7</v>
@@ -5218,10 +5278,10 @@
         <v>7</v>
       </c>
       <c r="T38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U38" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="V38">
         <v>7</v>
@@ -5239,10 +5299,10 @@
         <v>7</v>
       </c>
       <c r="AA38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB38" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AC38">
         <v>7</v>
@@ -5260,7 +5320,7 @@
         <v>7</v>
       </c>
       <c r="AH38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
@@ -5268,13 +5328,13 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>2630</v>
+        <v>3550</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D39">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
@@ -5301,10 +5361,10 @@
         <v>7</v>
       </c>
       <c r="M39" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="N39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O39">
         <v>7</v>
@@ -5322,10 +5382,10 @@
         <v>7</v>
       </c>
       <c r="T39" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="U39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V39">
         <v>7</v>
@@ -5343,10 +5403,10 @@
         <v>7</v>
       </c>
       <c r="AA39" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AB39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC39">
         <v>7</v>
@@ -5364,7 +5424,7 @@
         <v>7</v>
       </c>
       <c r="AH39" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
@@ -5372,13 +5432,13 @@
         <v>36</v>
       </c>
       <c r="B40">
-        <v>2623</v>
+        <v>2630</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D40">
-        <v>2618</v>
+        <v>2629</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
@@ -5476,13 +5536,13 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <v>2627</v>
+        <v>2623</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D41">
-        <v>2623</v>
+        <v>2618</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
@@ -5491,7 +5551,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H41">
         <v>7</v>
@@ -5512,7 +5572,7 @@
         <v>41</v>
       </c>
       <c r="N41" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="O41">
         <v>7</v>
@@ -5533,7 +5593,7 @@
         <v>41</v>
       </c>
       <c r="U41" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="V41">
         <v>7</v>
@@ -5554,7 +5614,7 @@
         <v>41</v>
       </c>
       <c r="AB41" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="AC41">
         <v>7</v>
@@ -5580,10 +5640,10 @@
         <v>36</v>
       </c>
       <c r="B42">
-        <v>2624</v>
+        <v>2627</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>2623</v>
@@ -5595,7 +5655,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H42">
         <v>7</v>
@@ -5616,7 +5676,7 @@
         <v>41</v>
       </c>
       <c r="N42" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="O42">
         <v>7</v>
@@ -5637,7 +5697,7 @@
         <v>41</v>
       </c>
       <c r="U42" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="V42">
         <v>7</v>
@@ -5658,7 +5718,7 @@
         <v>41</v>
       </c>
       <c r="AB42" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AC42">
         <v>7</v>
@@ -5684,10 +5744,10 @@
         <v>36</v>
       </c>
       <c r="B43">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D43">
         <v>2623</v>
@@ -5699,7 +5759,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H43">
         <v>7</v>
@@ -5720,7 +5780,7 @@
         <v>41</v>
       </c>
       <c r="N43" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="O43">
         <v>7</v>
@@ -5741,7 +5801,7 @@
         <v>41</v>
       </c>
       <c r="U43" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="V43">
         <v>7</v>
@@ -5762,7 +5822,7 @@
         <v>41</v>
       </c>
       <c r="AB43" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AC43">
         <v>7</v>
@@ -5788,10 +5848,10 @@
         <v>36</v>
       </c>
       <c r="B44">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="D44">
         <v>2623</v>
@@ -5803,7 +5863,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="H44">
         <v>7</v>
@@ -5824,7 +5884,7 @@
         <v>41</v>
       </c>
       <c r="N44" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="O44">
         <v>7</v>
@@ -5845,7 +5905,7 @@
         <v>41</v>
       </c>
       <c r="U44" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="V44">
         <v>7</v>
@@ -5866,7 +5926,7 @@
         <v>41</v>
       </c>
       <c r="AB44" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="AC44">
         <v>7</v>
@@ -5892,13 +5952,13 @@
         <v>36</v>
       </c>
       <c r="B45">
-        <v>3554</v>
+        <v>2626</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D45">
-        <v>2618</v>
+        <v>2623</v>
       </c>
       <c r="E45" t="s">
         <v>38</v>
@@ -5907,7 +5967,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H45">
         <v>7</v>
@@ -5928,7 +5988,7 @@
         <v>41</v>
       </c>
       <c r="N45" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="O45">
         <v>7</v>
@@ -5949,7 +6009,7 @@
         <v>41</v>
       </c>
       <c r="U45" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="V45">
         <v>7</v>
@@ -5970,7 +6030,7 @@
         <v>41</v>
       </c>
       <c r="AB45" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="AC45">
         <v>7</v>
@@ -5996,13 +6056,13 @@
         <v>36</v>
       </c>
       <c r="B46">
-        <v>2578</v>
+        <v>3554</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D46">
-        <v>2569</v>
+        <v>2618</v>
       </c>
       <c r="E46" t="s">
         <v>38</v>
@@ -6100,13 +6160,13 @@
         <v>36</v>
       </c>
       <c r="B47">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D47">
-        <v>2578</v>
+        <v>2569</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
@@ -6204,13 +6264,13 @@
         <v>36</v>
       </c>
       <c r="B48">
-        <v>3551</v>
+        <v>2579</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D48">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
@@ -6219,7 +6279,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>7</v>
@@ -6237,10 +6297,10 @@
         <v>7</v>
       </c>
       <c r="M48" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="N48" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="O48">
         <v>7</v>
@@ -6258,10 +6318,10 @@
         <v>7</v>
       </c>
       <c r="T48" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="U48" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="V48">
         <v>7</v>
@@ -6279,10 +6339,10 @@
         <v>7</v>
       </c>
       <c r="AA48" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="AB48" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="AC48">
         <v>7</v>
@@ -6300,7 +6360,7 @@
         <v>7</v>
       </c>
       <c r="AH48" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
@@ -6308,13 +6368,13 @@
         <v>36</v>
       </c>
       <c r="B49">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D49">
-        <v>3551</v>
+        <v>2579</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
@@ -6323,7 +6383,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H49">
         <v>7</v>
@@ -6341,10 +6401,10 @@
         <v>7</v>
       </c>
       <c r="M49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O49">
         <v>7</v>
@@ -6362,10 +6422,10 @@
         <v>7</v>
       </c>
       <c r="T49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V49">
         <v>7</v>
@@ -6383,10 +6443,10 @@
         <v>7</v>
       </c>
       <c r="AA49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC49">
         <v>7</v>
@@ -6404,7 +6464,7 @@
         <v>7</v>
       </c>
       <c r="AH49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
@@ -6412,13 +6472,13 @@
         <v>36</v>
       </c>
       <c r="B50">
-        <v>2589</v>
+        <v>3552</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="D50">
-        <v>2579</v>
+        <v>3551</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
@@ -6427,7 +6487,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H50">
         <v>7</v>
@@ -6445,10 +6505,10 @@
         <v>7</v>
       </c>
       <c r="M50" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="N50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O50">
         <v>7</v>
@@ -6466,10 +6526,10 @@
         <v>7</v>
       </c>
       <c r="T50" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="U50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V50">
         <v>7</v>
@@ -6487,10 +6547,10 @@
         <v>7</v>
       </c>
       <c r="AA50" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AB50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC50">
         <v>7</v>
@@ -6508,7 +6568,7 @@
         <v>7</v>
       </c>
       <c r="AH50" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
@@ -6516,13 +6576,13 @@
         <v>36</v>
       </c>
       <c r="B51">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D51">
-        <v>2589</v>
+        <v>2579</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
@@ -6531,7 +6591,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H51">
         <v>7</v>
@@ -6549,10 +6609,10 @@
         <v>7</v>
       </c>
       <c r="M51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O51">
         <v>7</v>
@@ -6570,10 +6630,10 @@
         <v>7</v>
       </c>
       <c r="T51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="U51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V51">
         <v>7</v>
@@ -6591,10 +6651,10 @@
         <v>7</v>
       </c>
       <c r="AA51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AB51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC51">
         <v>7</v>
@@ -6612,7 +6672,7 @@
         <v>7</v>
       </c>
       <c r="AH51" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
@@ -6620,7 +6680,7 @@
         <v>36</v>
       </c>
       <c r="B52">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="C52" t="s">
         <v>140</v>
@@ -6635,7 +6695,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H52">
         <v>7</v>
@@ -6653,10 +6713,10 @@
         <v>7</v>
       </c>
       <c r="M52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O52">
         <v>7</v>
@@ -6674,10 +6734,10 @@
         <v>7</v>
       </c>
       <c r="T52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="U52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V52">
         <v>7</v>
@@ -6695,10 +6755,10 @@
         <v>7</v>
       </c>
       <c r="AA52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AB52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC52">
         <v>7</v>
@@ -6716,7 +6776,7 @@
         <v>7</v>
       </c>
       <c r="AH52" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
@@ -6724,13 +6784,13 @@
         <v>36</v>
       </c>
       <c r="B53">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D53">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="E53" t="s">
         <v>38</v>
@@ -6739,7 +6799,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H53">
         <v>7</v>
@@ -6757,10 +6817,10 @@
         <v>7</v>
       </c>
       <c r="M53" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="N53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O53">
         <v>7</v>
@@ -6778,10 +6838,10 @@
         <v>7</v>
       </c>
       <c r="T53" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="U53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V53">
         <v>7</v>
@@ -6799,10 +6859,10 @@
         <v>7</v>
       </c>
       <c r="AA53" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AB53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC53">
         <v>7</v>
@@ -6820,7 +6880,7 @@
         <v>7</v>
       </c>
       <c r="AH53" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
@@ -6828,13 +6888,13 @@
         <v>36</v>
       </c>
       <c r="B54">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="D54">
-        <v>2592</v>
+        <v>2579</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
@@ -6843,7 +6903,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H54">
         <v>7</v>
@@ -6861,10 +6921,10 @@
         <v>7</v>
       </c>
       <c r="M54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O54">
         <v>7</v>
@@ -6882,10 +6942,10 @@
         <v>7</v>
       </c>
       <c r="T54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V54">
         <v>7</v>
@@ -6903,10 +6963,10 @@
         <v>7</v>
       </c>
       <c r="AA54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC54">
         <v>7</v>
@@ -6924,7 +6984,7 @@
         <v>7</v>
       </c>
       <c r="AH54" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
@@ -6932,10 +6992,10 @@
         <v>36</v>
       </c>
       <c r="B55">
-        <v>3018</v>
+        <v>2593</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D55">
         <v>2592</v>
@@ -6947,7 +7007,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H55">
         <v>7</v>
@@ -6965,10 +7025,10 @@
         <v>7</v>
       </c>
       <c r="M55" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O55">
         <v>7</v>
@@ -6986,10 +7046,10 @@
         <v>7</v>
       </c>
       <c r="T55" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V55">
         <v>7</v>
@@ -7007,10 +7067,10 @@
         <v>7</v>
       </c>
       <c r="AA55" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC55">
         <v>7</v>
@@ -7028,7 +7088,7 @@
         <v>7</v>
       </c>
       <c r="AH55" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.35">
@@ -7036,10 +7096,10 @@
         <v>36</v>
       </c>
       <c r="B56">
-        <v>2594</v>
+        <v>3018</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D56">
         <v>2592</v>
@@ -7051,7 +7111,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H56">
         <v>7</v>
@@ -7069,10 +7129,10 @@
         <v>7</v>
       </c>
       <c r="M56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N56" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="O56">
         <v>7</v>
@@ -7090,10 +7150,10 @@
         <v>7</v>
       </c>
       <c r="T56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U56" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="V56">
         <v>7</v>
@@ -7111,10 +7171,10 @@
         <v>7</v>
       </c>
       <c r="AA56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB56" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AC56">
         <v>7</v>
@@ -7132,7 +7192,7 @@
         <v>7</v>
       </c>
       <c r="AH56" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
@@ -7140,10 +7200,10 @@
         <v>36</v>
       </c>
       <c r="B57">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D57">
         <v>2592</v>
@@ -7155,7 +7215,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>7</v>
@@ -7173,10 +7233,10 @@
         <v>7</v>
       </c>
       <c r="M57" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N57" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="O57">
         <v>7</v>
@@ -7194,10 +7254,10 @@
         <v>7</v>
       </c>
       <c r="T57" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U57" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="V57">
         <v>7</v>
@@ -7215,10 +7275,10 @@
         <v>7</v>
       </c>
       <c r="AA57" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB57" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AC57">
         <v>7</v>
@@ -7236,7 +7296,7 @@
         <v>7</v>
       </c>
       <c r="AH57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
@@ -7244,10 +7304,10 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D58">
         <v>2592</v>
@@ -7259,7 +7319,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="H58">
         <v>7</v>
@@ -7277,10 +7337,10 @@
         <v>7</v>
       </c>
       <c r="M58" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N58" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="O58">
         <v>7</v>
@@ -7298,10 +7358,10 @@
         <v>7</v>
       </c>
       <c r="T58" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="V58">
         <v>7</v>
@@ -7319,10 +7379,10 @@
         <v>7</v>
       </c>
       <c r="AA58" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB58" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="AC58">
         <v>7</v>
@@ -7340,7 +7400,7 @@
         <v>7</v>
       </c>
       <c r="AH58" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
@@ -7348,13 +7408,13 @@
         <v>36</v>
       </c>
       <c r="B59">
-        <v>2610</v>
+        <v>2596</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D59">
-        <v>2579</v>
+        <v>2592</v>
       </c>
       <c r="E59" t="s">
         <v>38</v>
@@ -7363,7 +7423,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H59">
         <v>7</v>
@@ -7381,10 +7441,10 @@
         <v>7</v>
       </c>
       <c r="M59" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O59">
         <v>7</v>
@@ -7402,10 +7462,10 @@
         <v>7</v>
       </c>
       <c r="T59" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="U59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V59">
         <v>7</v>
@@ -7423,10 +7483,10 @@
         <v>7</v>
       </c>
       <c r="AA59" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AB59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC59">
         <v>7</v>
@@ -7444,7 +7504,7 @@
         <v>7</v>
       </c>
       <c r="AH59" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.35">
@@ -7452,13 +7512,13 @@
         <v>36</v>
       </c>
       <c r="B60">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D60">
-        <v>2610</v>
+        <v>2579</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
@@ -7467,7 +7527,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H60">
         <v>7</v>
@@ -7485,10 +7545,10 @@
         <v>7</v>
       </c>
       <c r="M60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O60">
         <v>7</v>
@@ -7506,10 +7566,10 @@
         <v>7</v>
       </c>
       <c r="T60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="U60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V60">
         <v>7</v>
@@ -7527,10 +7587,10 @@
         <v>7</v>
       </c>
       <c r="AA60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AB60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC60">
         <v>7</v>
@@ -7548,7 +7608,7 @@
         <v>7</v>
       </c>
       <c r="AH60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.35">
@@ -7556,7 +7616,7 @@
         <v>36</v>
       </c>
       <c r="B61">
-        <v>3019</v>
+        <v>2611</v>
       </c>
       <c r="C61" t="s">
         <v>142</v>
@@ -7571,7 +7631,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H61">
         <v>7</v>
@@ -7589,10 +7649,10 @@
         <v>7</v>
       </c>
       <c r="M61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O61">
         <v>7</v>
@@ -7610,10 +7670,10 @@
         <v>7</v>
       </c>
       <c r="T61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="U61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V61">
         <v>7</v>
@@ -7631,10 +7691,10 @@
         <v>7</v>
       </c>
       <c r="AA61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AB61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC61">
         <v>7</v>
@@ -7652,7 +7712,7 @@
         <v>7</v>
       </c>
       <c r="AH61" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.35">
@@ -7660,13 +7720,13 @@
         <v>36</v>
       </c>
       <c r="B62">
-        <v>2612</v>
+        <v>3019</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D62">
-        <v>2579</v>
+        <v>2610</v>
       </c>
       <c r="E62" t="s">
         <v>38</v>
@@ -7675,7 +7735,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H62">
         <v>7</v>
@@ -7693,10 +7753,10 @@
         <v>7</v>
       </c>
       <c r="M62" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="N62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O62">
         <v>7</v>
@@ -7714,10 +7774,10 @@
         <v>7</v>
       </c>
       <c r="T62" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="U62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V62">
         <v>7</v>
@@ -7735,10 +7795,10 @@
         <v>7</v>
       </c>
       <c r="AA62" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="AB62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC62">
         <v>7</v>
@@ -7756,7 +7816,7 @@
         <v>7</v>
       </c>
       <c r="AH62" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.35">
@@ -7764,13 +7824,13 @@
         <v>36</v>
       </c>
       <c r="B63">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D63">
-        <v>2612</v>
+        <v>2579</v>
       </c>
       <c r="E63" t="s">
         <v>38</v>
@@ -7779,7 +7839,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H63">
         <v>7</v>
@@ -7797,10 +7857,10 @@
         <v>7</v>
       </c>
       <c r="M63" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O63">
         <v>7</v>
@@ -7818,10 +7878,10 @@
         <v>7</v>
       </c>
       <c r="T63" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V63">
         <v>7</v>
@@ -7839,10 +7899,10 @@
         <v>7</v>
       </c>
       <c r="AA63" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC63">
         <v>7</v>
@@ -7860,7 +7920,7 @@
         <v>7</v>
       </c>
       <c r="AH63" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
@@ -7868,10 +7928,10 @@
         <v>36</v>
       </c>
       <c r="B64">
-        <v>3020</v>
+        <v>2613</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D64">
         <v>2612</v>
@@ -7883,7 +7943,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H64">
         <v>7</v>
@@ -7901,10 +7961,10 @@
         <v>7</v>
       </c>
       <c r="M64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O64">
         <v>7</v>
@@ -7922,10 +7982,10 @@
         <v>7</v>
       </c>
       <c r="T64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V64">
         <v>7</v>
@@ -7943,10 +8003,10 @@
         <v>7</v>
       </c>
       <c r="AA64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC64">
         <v>7</v>
@@ -7964,7 +8024,7 @@
         <v>7</v>
       </c>
       <c r="AH64" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
@@ -7972,13 +8032,13 @@
         <v>36</v>
       </c>
       <c r="B65">
-        <v>2597</v>
+        <v>3020</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="D65">
-        <v>2579</v>
+        <v>2612</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
@@ -7987,7 +8047,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H65">
         <v>7</v>
@@ -8005,10 +8065,10 @@
         <v>7</v>
       </c>
       <c r="M65" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="N65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O65">
         <v>7</v>
@@ -8026,10 +8086,10 @@
         <v>7</v>
       </c>
       <c r="T65" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="U65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V65">
         <v>7</v>
@@ -8047,10 +8107,10 @@
         <v>7</v>
       </c>
       <c r="AA65" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="AB65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC65">
         <v>7</v>
@@ -8068,7 +8128,7 @@
         <v>7</v>
       </c>
       <c r="AH65" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.35">
@@ -8076,13 +8136,13 @@
         <v>36</v>
       </c>
       <c r="B66">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D66">
-        <v>2597</v>
+        <v>2579</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
@@ -8091,7 +8151,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H66">
         <v>7</v>
@@ -8109,10 +8169,10 @@
         <v>7</v>
       </c>
       <c r="M66" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O66">
         <v>7</v>
@@ -8130,10 +8190,10 @@
         <v>7</v>
       </c>
       <c r="T66" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="U66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V66">
         <v>7</v>
@@ -8151,10 +8211,10 @@
         <v>7</v>
       </c>
       <c r="AA66" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AB66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC66">
         <v>7</v>
@@ -8172,7 +8232,7 @@
         <v>7</v>
       </c>
       <c r="AH66" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
@@ -8180,13 +8240,13 @@
         <v>36</v>
       </c>
       <c r="B67">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="D67">
-        <v>2579</v>
+        <v>2597</v>
       </c>
       <c r="E67" t="s">
         <v>38</v>
@@ -8195,7 +8255,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H67">
         <v>7</v>
@@ -8213,10 +8273,10 @@
         <v>7</v>
       </c>
       <c r="M67" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O67">
         <v>7</v>
@@ -8234,10 +8294,10 @@
         <v>7</v>
       </c>
       <c r="T67" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="U67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V67">
         <v>7</v>
@@ -8255,10 +8315,10 @@
         <v>7</v>
       </c>
       <c r="AA67" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC67">
         <v>7</v>
@@ -8276,7 +8336,7 @@
         <v>7</v>
       </c>
       <c r="AH67" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.35">
@@ -8284,13 +8344,13 @@
         <v>36</v>
       </c>
       <c r="B68">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D68">
-        <v>2599</v>
+        <v>2579</v>
       </c>
       <c r="E68" t="s">
         <v>38</v>
@@ -8299,7 +8359,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H68">
         <v>7</v>
@@ -8317,10 +8377,10 @@
         <v>7</v>
       </c>
       <c r="M68" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O68">
         <v>7</v>
@@ -8338,10 +8398,10 @@
         <v>7</v>
       </c>
       <c r="T68" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V68">
         <v>7</v>
@@ -8359,10 +8419,10 @@
         <v>7</v>
       </c>
       <c r="AA68" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC68">
         <v>7</v>
@@ -8380,7 +8440,7 @@
         <v>7</v>
       </c>
       <c r="AH68" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.35">
@@ -8388,13 +8448,13 @@
         <v>36</v>
       </c>
       <c r="B69">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="D69">
-        <v>2579</v>
+        <v>2599</v>
       </c>
       <c r="E69" t="s">
         <v>38</v>
@@ -8403,7 +8463,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H69">
         <v>7</v>
@@ -8421,10 +8481,10 @@
         <v>7</v>
       </c>
       <c r="M69" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="N69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O69">
         <v>7</v>
@@ -8442,10 +8502,10 @@
         <v>7</v>
       </c>
       <c r="T69" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="U69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V69">
         <v>7</v>
@@ -8463,10 +8523,10 @@
         <v>7</v>
       </c>
       <c r="AA69" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AB69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC69">
         <v>7</v>
@@ -8484,7 +8544,7 @@
         <v>7</v>
       </c>
       <c r="AH69" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
@@ -8492,13 +8552,13 @@
         <v>36</v>
       </c>
       <c r="B70">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D70">
-        <v>2601</v>
+        <v>2579</v>
       </c>
       <c r="E70" t="s">
         <v>38</v>
@@ -8507,7 +8567,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H70">
         <v>7</v>
@@ -8525,10 +8585,10 @@
         <v>7</v>
       </c>
       <c r="M70" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O70">
         <v>7</v>
@@ -8546,10 +8606,10 @@
         <v>7</v>
       </c>
       <c r="T70" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V70">
         <v>7</v>
@@ -8567,10 +8627,10 @@
         <v>7</v>
       </c>
       <c r="AA70" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AB70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC70">
         <v>7</v>
@@ -8588,7 +8648,7 @@
         <v>7</v>
       </c>
       <c r="AH70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.35">
@@ -8596,10 +8656,10 @@
         <v>36</v>
       </c>
       <c r="B71">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D71">
         <v>2601</v>
@@ -8611,7 +8671,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H71">
         <v>7</v>
@@ -8629,10 +8689,10 @@
         <v>7</v>
       </c>
       <c r="M71" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O71">
         <v>7</v>
@@ -8650,10 +8710,10 @@
         <v>7</v>
       </c>
       <c r="T71" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V71">
         <v>7</v>
@@ -8671,10 +8731,10 @@
         <v>7</v>
       </c>
       <c r="AA71" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AB71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC71">
         <v>7</v>
@@ -8692,7 +8752,7 @@
         <v>7</v>
       </c>
       <c r="AH71" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
@@ -8700,10 +8760,10 @@
         <v>36</v>
       </c>
       <c r="B72">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D72">
         <v>2601</v>
@@ -8715,7 +8775,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H72">
         <v>7</v>
@@ -8733,10 +8793,10 @@
         <v>7</v>
       </c>
       <c r="M72" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O72">
         <v>7</v>
@@ -8754,10 +8814,10 @@
         <v>7</v>
       </c>
       <c r="T72" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V72">
         <v>7</v>
@@ -8775,10 +8835,10 @@
         <v>7</v>
       </c>
       <c r="AA72" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AB72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC72">
         <v>7</v>
@@ -8796,7 +8856,7 @@
         <v>7</v>
       </c>
       <c r="AH72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
@@ -8804,13 +8864,13 @@
         <v>36</v>
       </c>
       <c r="B73">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D73">
-        <v>2579</v>
+        <v>2601</v>
       </c>
       <c r="E73" t="s">
         <v>38</v>
@@ -8819,7 +8879,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H73">
         <v>7</v>
@@ -8837,10 +8897,10 @@
         <v>7</v>
       </c>
       <c r="M73" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="N73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O73">
         <v>7</v>
@@ -8858,10 +8918,10 @@
         <v>7</v>
       </c>
       <c r="T73" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="U73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V73">
         <v>7</v>
@@ -8879,10 +8939,10 @@
         <v>7</v>
       </c>
       <c r="AA73" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AB73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC73">
         <v>7</v>
@@ -8900,7 +8960,7 @@
         <v>7</v>
       </c>
       <c r="AH73" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.35">
@@ -8908,13 +8968,13 @@
         <v>36</v>
       </c>
       <c r="B74">
-        <v>3553</v>
+        <v>2605</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="D74">
-        <v>2605</v>
+        <v>2579</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
@@ -8923,7 +8983,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H74">
         <v>7</v>
@@ -8941,10 +9001,10 @@
         <v>7</v>
       </c>
       <c r="M74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N74" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O74">
         <v>7</v>
@@ -8962,10 +9022,10 @@
         <v>7</v>
       </c>
       <c r="T74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U74" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V74">
         <v>7</v>
@@ -8983,10 +9043,10 @@
         <v>7</v>
       </c>
       <c r="AA74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AB74" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC74">
         <v>7</v>
@@ -9004,7 +9064,7 @@
         <v>7</v>
       </c>
       <c r="AH74" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.35">
@@ -9012,10 +9072,10 @@
         <v>36</v>
       </c>
       <c r="B75">
-        <v>2606</v>
+        <v>3553</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D75">
         <v>2605</v>
@@ -9027,7 +9087,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H75">
         <v>7</v>
@@ -9045,10 +9105,10 @@
         <v>7</v>
       </c>
       <c r="M75" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O75">
         <v>7</v>
@@ -9066,10 +9126,10 @@
         <v>7</v>
       </c>
       <c r="T75" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V75">
         <v>7</v>
@@ -9087,10 +9147,10 @@
         <v>7</v>
       </c>
       <c r="AA75" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AB75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC75">
         <v>7</v>
@@ -9108,7 +9168,7 @@
         <v>7</v>
       </c>
       <c r="AH75" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.35">
@@ -9116,13 +9176,13 @@
         <v>36</v>
       </c>
       <c r="B76">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C76" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="D76">
-        <v>2579</v>
+        <v>2605</v>
       </c>
       <c r="E76" t="s">
         <v>38</v>
@@ -9131,7 +9191,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H76">
         <v>7</v>
@@ -9149,70 +9209,70 @@
         <v>7</v>
       </c>
       <c r="M76" t="s">
+        <v>119</v>
+      </c>
+      <c r="N76" t="s">
+        <v>88</v>
+      </c>
+      <c r="O76">
+        <v>7</v>
+      </c>
+      <c r="P76">
+        <v>7</v>
+      </c>
+      <c r="Q76">
+        <v>7</v>
+      </c>
+      <c r="R76">
+        <v>7</v>
+      </c>
+      <c r="S76">
+        <v>7</v>
+      </c>
+      <c r="T76" t="s">
+        <v>119</v>
+      </c>
+      <c r="U76" t="s">
+        <v>88</v>
+      </c>
+      <c r="V76">
+        <v>7</v>
+      </c>
+      <c r="W76">
+        <v>7</v>
+      </c>
+      <c r="X76">
+        <v>7</v>
+      </c>
+      <c r="Y76">
+        <v>7</v>
+      </c>
+      <c r="Z76">
+        <v>7</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC76">
+        <v>7</v>
+      </c>
+      <c r="AD76">
+        <v>7</v>
+      </c>
+      <c r="AE76">
+        <v>7</v>
+      </c>
+      <c r="AF76">
+        <v>7</v>
+      </c>
+      <c r="AG76">
+        <v>7</v>
+      </c>
+      <c r="AH76" t="s">
         <v>120</v>
-      </c>
-      <c r="N76" t="s">
-        <v>91</v>
-      </c>
-      <c r="O76">
-        <v>7</v>
-      </c>
-      <c r="P76">
-        <v>7</v>
-      </c>
-      <c r="Q76">
-        <v>7</v>
-      </c>
-      <c r="R76">
-        <v>7</v>
-      </c>
-      <c r="S76">
-        <v>7</v>
-      </c>
-      <c r="T76" t="s">
-        <v>120</v>
-      </c>
-      <c r="U76" t="s">
-        <v>91</v>
-      </c>
-      <c r="V76">
-        <v>7</v>
-      </c>
-      <c r="W76">
-        <v>7</v>
-      </c>
-      <c r="X76">
-        <v>7</v>
-      </c>
-      <c r="Y76">
-        <v>7</v>
-      </c>
-      <c r="Z76">
-        <v>7</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC76">
-        <v>7</v>
-      </c>
-      <c r="AD76">
-        <v>7</v>
-      </c>
-      <c r="AE76">
-        <v>7</v>
-      </c>
-      <c r="AF76">
-        <v>7</v>
-      </c>
-      <c r="AG76">
-        <v>7</v>
-      </c>
-      <c r="AH76" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.35">
@@ -9220,13 +9280,13 @@
         <v>36</v>
       </c>
       <c r="B77">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="D77">
-        <v>2607</v>
+        <v>2579</v>
       </c>
       <c r="E77" t="s">
         <v>38</v>
@@ -9235,7 +9295,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H77">
         <v>7</v>
@@ -9253,10 +9313,10 @@
         <v>7</v>
       </c>
       <c r="M77" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O77">
         <v>7</v>
@@ -9274,10 +9334,10 @@
         <v>7</v>
       </c>
       <c r="T77" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="U77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V77">
         <v>7</v>
@@ -9295,10 +9355,10 @@
         <v>7</v>
       </c>
       <c r="AA77" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AB77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC77">
         <v>7</v>
@@ -9316,7 +9376,7 @@
         <v>7</v>
       </c>
       <c r="AH77" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.35">
@@ -9324,10 +9384,10 @@
         <v>36</v>
       </c>
       <c r="B78">
-        <v>3549</v>
+        <v>2608</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D78">
         <v>2607</v>
@@ -9339,7 +9399,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H78">
         <v>7</v>
@@ -9357,10 +9417,10 @@
         <v>7</v>
       </c>
       <c r="M78" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O78">
         <v>7</v>
@@ -9378,10 +9438,10 @@
         <v>7</v>
       </c>
       <c r="T78" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="U78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V78">
         <v>7</v>
@@ -9399,10 +9459,10 @@
         <v>7</v>
       </c>
       <c r="AA78" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AB78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC78">
         <v>7</v>
@@ -9420,7 +9480,7 @@
         <v>7</v>
       </c>
       <c r="AH78" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.35">
@@ -9428,13 +9488,13 @@
         <v>36</v>
       </c>
       <c r="B79">
-        <v>2580</v>
+        <v>3549</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="D79">
-        <v>2579</v>
+        <v>2607</v>
       </c>
       <c r="E79" t="s">
         <v>38</v>
@@ -9443,7 +9503,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H79">
         <v>7</v>
@@ -9461,10 +9521,10 @@
         <v>7</v>
       </c>
       <c r="M79" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="N79" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O79">
         <v>7</v>
@@ -9482,10 +9542,10 @@
         <v>7</v>
       </c>
       <c r="T79" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="U79" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V79">
         <v>7</v>
@@ -9503,10 +9563,10 @@
         <v>7</v>
       </c>
       <c r="AA79" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="AB79" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC79">
         <v>7</v>
@@ -9524,7 +9584,7 @@
         <v>7</v>
       </c>
       <c r="AH79" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.35">
@@ -9532,13 +9592,13 @@
         <v>36</v>
       </c>
       <c r="B80">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="C80" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="D80">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
@@ -9547,7 +9607,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H80">
         <v>7</v>
@@ -9568,7 +9628,7 @@
         <v>41</v>
       </c>
       <c r="N80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O80">
         <v>7</v>
@@ -9589,7 +9649,7 @@
         <v>41</v>
       </c>
       <c r="U80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V80">
         <v>7</v>
@@ -9610,7 +9670,7 @@
         <v>41</v>
       </c>
       <c r="AB80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC80">
         <v>7</v>
@@ -9636,10 +9696,10 @@
         <v>36</v>
       </c>
       <c r="B81">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="C81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D81">
         <v>2580</v>
@@ -9651,7 +9711,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -9672,7 +9732,7 @@
         <v>41</v>
       </c>
       <c r="N81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O81">
         <v>7</v>
@@ -9693,7 +9753,7 @@
         <v>41</v>
       </c>
       <c r="U81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V81">
         <v>7</v>
@@ -9714,7 +9774,7 @@
         <v>41</v>
       </c>
       <c r="AB81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC81">
         <v>7</v>
@@ -9740,10 +9800,10 @@
         <v>36</v>
       </c>
       <c r="B82">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="C82" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D82">
         <v>2580</v>
@@ -9755,7 +9815,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H82">
         <v>7</v>
@@ -9776,7 +9836,7 @@
         <v>41</v>
       </c>
       <c r="N82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O82">
         <v>7</v>
@@ -9797,7 +9857,7 @@
         <v>41</v>
       </c>
       <c r="U82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V82">
         <v>7</v>
@@ -9818,7 +9878,7 @@
         <v>41</v>
       </c>
       <c r="AB82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC82">
         <v>7</v>
@@ -9844,10 +9904,10 @@
         <v>36</v>
       </c>
       <c r="B83">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="C83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D83">
         <v>2580</v>
@@ -9859,7 +9919,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H83">
         <v>7</v>
@@ -9880,7 +9940,7 @@
         <v>41</v>
       </c>
       <c r="N83" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="O83">
         <v>7</v>
@@ -9901,7 +9961,7 @@
         <v>41</v>
       </c>
       <c r="U83" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="V83">
         <v>7</v>
@@ -9922,7 +9982,7 @@
         <v>41</v>
       </c>
       <c r="AB83" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AC83">
         <v>7</v>
@@ -9948,10 +10008,10 @@
         <v>36</v>
       </c>
       <c r="B84">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D84">
         <v>2580</v>
@@ -9963,7 +10023,7 @@
         <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>7</v>
@@ -9984,7 +10044,7 @@
         <v>41</v>
       </c>
       <c r="N84" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="O84">
         <v>7</v>
@@ -10005,7 +10065,7 @@
         <v>41</v>
       </c>
       <c r="U84" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="V84">
         <v>7</v>
@@ -10026,7 +10086,7 @@
         <v>41</v>
       </c>
       <c r="AB84" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AC84">
         <v>7</v>
@@ -10052,13 +10112,13 @@
         <v>36</v>
       </c>
       <c r="B85">
-        <v>2570</v>
+        <v>2585</v>
       </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="D85">
-        <v>2569</v>
+        <v>2580</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
@@ -10067,7 +10127,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H85">
         <v>7</v>
@@ -10088,7 +10148,7 @@
         <v>41</v>
       </c>
       <c r="N85" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="O85">
         <v>7</v>
@@ -10109,7 +10169,7 @@
         <v>41</v>
       </c>
       <c r="U85" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="V85">
         <v>7</v>
@@ -10130,7 +10190,7 @@
         <v>41</v>
       </c>
       <c r="AB85" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="AC85">
         <v>7</v>
@@ -10156,10 +10216,10 @@
         <v>36</v>
       </c>
       <c r="B86">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D86">
         <v>2569</v>
@@ -10260,10 +10320,10 @@
         <v>36</v>
       </c>
       <c r="B87">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="C87" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D87">
         <v>2569</v>
@@ -10364,10 +10424,10 @@
         <v>36</v>
       </c>
       <c r="B88">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="C88" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D88">
         <v>2569</v>
@@ -10468,10 +10528,13 @@
         <v>36</v>
       </c>
       <c r="B89">
-        <v>2658</v>
+        <v>2571</v>
       </c>
       <c r="C89" t="s">
-        <v>160</v>
+        <v>67</v>
+      </c>
+      <c r="D89">
+        <v>2569</v>
       </c>
       <c r="E89" t="s">
         <v>38</v>
@@ -10483,19 +10546,19 @@
         <v>40</v>
       </c>
       <c r="H89">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="I89">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="J89">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="K89">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="L89">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M89" t="s">
         <v>41</v>
@@ -10504,19 +10567,19 @@
         <v>42</v>
       </c>
       <c r="O89">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="P89">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="Q89">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="R89">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="S89">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T89" t="s">
         <v>41</v>
@@ -10525,19 +10588,19 @@
         <v>42</v>
       </c>
       <c r="V89">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="W89">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="X89">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y89">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Z89">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA89" t="s">
         <v>41</v>
@@ -10546,19 +10609,19 @@
         <v>42</v>
       </c>
       <c r="AC89">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="AD89">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="AE89">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="AF89">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="AG89">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH89" t="s">
         <v>43</v>
@@ -10569,10 +10632,10 @@
         <v>36</v>
       </c>
       <c r="B90">
-        <v>3121</v>
+        <v>2658</v>
       </c>
       <c r="C90" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
@@ -10584,16 +10647,16 @@
         <v>40</v>
       </c>
       <c r="H90">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I90">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="J90">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="K90">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="L90">
         <v>253</v>
@@ -10605,16 +10668,16 @@
         <v>42</v>
       </c>
       <c r="O90">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="P90">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="Q90">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="R90">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="S90">
         <v>253</v>
@@ -10626,16 +10689,16 @@
         <v>42</v>
       </c>
       <c r="V90">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="W90">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="X90">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="Y90">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="Z90">
         <v>253</v>
@@ -10647,16 +10710,16 @@
         <v>42</v>
       </c>
       <c r="AC90">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="AD90">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="AE90">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="AF90">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="AG90">
         <v>253</v>
@@ -10670,13 +10733,10 @@
         <v>36</v>
       </c>
       <c r="B91">
-        <v>3122</v>
+        <v>2655</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91">
-        <v>3121</v>
+        <v>163</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
@@ -10688,16 +10748,16 @@
         <v>40</v>
       </c>
       <c r="H91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I91">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L91">
         <v>253</v>
@@ -10709,16 +10769,16 @@
         <v>42</v>
       </c>
       <c r="O91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P91">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S91">
         <v>253</v>
@@ -10730,16 +10790,16 @@
         <v>42</v>
       </c>
       <c r="V91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W91">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z91">
         <v>253</v>
@@ -10751,16 +10811,16 @@
         <v>42</v>
       </c>
       <c r="AC91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD91">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AF91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG91">
         <v>253</v>
@@ -10774,10 +10834,10 @@
         <v>36</v>
       </c>
       <c r="B92">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="C92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
@@ -10789,16 +10849,16 @@
         <v>40</v>
       </c>
       <c r="H92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I92">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L92">
         <v>253</v>
@@ -10810,16 +10870,16 @@
         <v>42</v>
       </c>
       <c r="O92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P92">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S92">
         <v>253</v>
@@ -10831,16 +10891,16 @@
         <v>42</v>
       </c>
       <c r="V92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W92">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="X92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z92">
         <v>253</v>
@@ -10852,16 +10912,16 @@
         <v>42</v>
       </c>
       <c r="AC92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD92">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AF92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AG92">
         <v>253</v>
@@ -10875,10 +10935,10 @@
         <v>36</v>
       </c>
       <c r="B93">
-        <v>2659</v>
+        <v>3350</v>
       </c>
       <c r="C93" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
@@ -10976,10 +11036,13 @@
         <v>36</v>
       </c>
       <c r="B94">
+        <v>3351</v>
+      </c>
+      <c r="C94" t="s">
+        <v>52</v>
+      </c>
+      <c r="D94">
         <v>3350</v>
-      </c>
-      <c r="C94" t="s">
-        <v>63</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
@@ -11077,13 +11140,10 @@
         <v>36</v>
       </c>
       <c r="B95">
-        <v>3351</v>
+        <v>2637</v>
       </c>
       <c r="C95" t="s">
-        <v>53</v>
-      </c>
-      <c r="D95">
-        <v>3350</v>
+        <v>157</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
@@ -11181,10 +11241,13 @@
         <v>36</v>
       </c>
       <c r="B96">
+        <v>2639</v>
+      </c>
+      <c r="C96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96">
         <v>2637</v>
-      </c>
-      <c r="C96" t="s">
-        <v>155</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
@@ -11282,10 +11345,10 @@
         <v>36</v>
       </c>
       <c r="B97">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="C97" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D97">
         <v>2637</v>
@@ -11386,10 +11449,10 @@
         <v>36</v>
       </c>
       <c r="B98">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="C98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D98">
         <v>2637</v>
@@ -11490,10 +11553,10 @@
         <v>36</v>
       </c>
       <c r="B99">
-        <v>2640</v>
+        <v>4101</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D99">
         <v>2637</v>
@@ -11594,13 +11657,10 @@
         <v>36</v>
       </c>
       <c r="B100">
-        <v>4101</v>
+        <v>2948</v>
       </c>
       <c r="C100" t="s">
-        <v>45</v>
-      </c>
-      <c r="D100">
-        <v>2637</v>
+        <v>161</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
@@ -11612,10 +11672,10 @@
         <v>40</v>
       </c>
       <c r="H100">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="I100">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="J100">
         <v>7</v>
@@ -11633,10 +11693,10 @@
         <v>42</v>
       </c>
       <c r="O100">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="P100">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -11654,10 +11714,10 @@
         <v>42</v>
       </c>
       <c r="V100">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="W100">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="X100">
         <v>7</v>
@@ -11675,10 +11735,10 @@
         <v>42</v>
       </c>
       <c r="AC100">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="AD100">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="AE100">
         <v>7</v>
@@ -11693,111 +11753,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>36</v>
-      </c>
-      <c r="B101">
-        <v>2948</v>
-      </c>
-      <c r="C101" t="s">
-        <v>159</v>
-      </c>
-      <c r="E101" t="s">
-        <v>38</v>
-      </c>
-      <c r="F101" t="s">
-        <v>39</v>
-      </c>
-      <c r="G101" t="s">
-        <v>40</v>
-      </c>
-      <c r="H101">
-        <v>160</v>
-      </c>
-      <c r="I101">
-        <v>162</v>
-      </c>
-      <c r="J101">
-        <v>7</v>
-      </c>
-      <c r="K101">
-        <v>7</v>
-      </c>
-      <c r="L101">
-        <v>253</v>
-      </c>
-      <c r="M101" t="s">
-        <v>41</v>
-      </c>
-      <c r="N101" t="s">
-        <v>42</v>
-      </c>
-      <c r="O101">
-        <v>160</v>
-      </c>
-      <c r="P101">
-        <v>162</v>
-      </c>
-      <c r="Q101">
-        <v>7</v>
-      </c>
-      <c r="R101">
-        <v>7</v>
-      </c>
-      <c r="S101">
-        <v>253</v>
-      </c>
-      <c r="T101" t="s">
-        <v>41</v>
-      </c>
-      <c r="U101" t="s">
-        <v>42</v>
-      </c>
-      <c r="V101">
-        <v>160</v>
-      </c>
-      <c r="W101">
-        <v>162</v>
-      </c>
-      <c r="X101">
-        <v>7</v>
-      </c>
-      <c r="Y101">
-        <v>7</v>
-      </c>
-      <c r="Z101">
-        <v>253</v>
-      </c>
-      <c r="AA101" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB101" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC101">
-        <v>160</v>
-      </c>
-      <c r="AD101">
-        <v>162</v>
-      </c>
-      <c r="AE101">
-        <v>7</v>
-      </c>
-      <c r="AF101">
-        <v>7</v>
-      </c>
-      <c r="AG101">
-        <v>253</v>
-      </c>
-      <c r="AH101" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ101" xr:uid="{5057C41D-1D45-4D69-840E-70ED36E64F63}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ101">
-      <sortCondition ref="C1:C101"/>
+  <autoFilter ref="A1:AJ100" xr:uid="{8BE88145-C812-4B09-B39B-D607FE3974EC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ100">
+      <sortCondition ref="C1:C100"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-VW-verkeerskundewegen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-VW-verkeerskundewegen.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2FA81EC0-70C5-4302-90C3-DED3771ACC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F3878A4F-B987-406B-8501-9489AECA4844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A31F6CF3-08B0-4B64-B5DF-F379028B4139}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AD319A3D-1C9A-4747-8AB8-1C894843C938}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-VW-verkeer" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-VW-verkeer'!$A$1:$AJ$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-VW-verkeer'!$A$1:$AJ$118</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="183">
   <si>
     <t>hoofdgroep</t>
   </si>
@@ -136,84 +136,132 @@
     <t>VW</t>
   </si>
   <si>
+    <t>VERKEERSTEKEN_TRAMSIGNALERING</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>CONTINUOUS</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>V-CONTINUOUS-SO</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_DRAAGCONSTRUCTIE</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BEBAKENING</t>
+  </si>
+  <si>
+    <t>MARKERING_SYMBOOL</t>
+  </si>
+  <si>
+    <t>MARKERING_PIJL</t>
+  </si>
+  <si>
+    <t>BEWEGWIJZERING_DRAAGCONSTRUCTIE</t>
+  </si>
+  <si>
+    <t>AFZETTING_POLLER</t>
+  </si>
+  <si>
+    <t>AFZETTING_AFSLUITPAAL</t>
+  </si>
+  <si>
+    <t>VERKEERSSPIEGEL_DRAAGCONSTRUCTIE</t>
+  </si>
+  <si>
+    <t>AFZETTING_POLLER_VAST</t>
+  </si>
+  <si>
+    <t>AFZETTING_POLLER_KAST</t>
+  </si>
+  <si>
+    <t>AFZETTING_POLLER_SCANPAAL</t>
+  </si>
+  <si>
+    <t>AFZETTING_POLLER_BEWEEGBAAR</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_VERKEERSZUIL</t>
+  </si>
+  <si>
+    <t>BLINDENGELEIDEROUTE_KLANKTEGEL</t>
+  </si>
+  <si>
+    <t>BLINDENGELEIDEROUTE_NOPPENTEGEL</t>
+  </si>
+  <si>
+    <t>BLINDENGELEIDEROUTE_WAARSCHUWINGSTEGEL</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_STRAATNAAM</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_INFORMATIE</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_PLAATSNAAM</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_PIJLBAK</t>
+  </si>
+  <si>
+    <t>BEWEGWIJZERING</t>
+  </si>
+  <si>
+    <t>HECTOMETERPAAL</t>
+  </si>
+  <si>
+    <t>VERKEERSSPIEGEL</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_CATEGORIE_K</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_CATEGORIE_J</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_CATEGORIE_A</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_CATEGORIE_L</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_CATEGORIE_C</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_CATEGORIE_B</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_CATEGORIE_H</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_CATEGORIE_E</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_CATEGORIE_G</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_CATEGORIE_F</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_CATEGORIE_D</t>
+  </si>
+  <si>
     <t>VERKEERSTEKEN_BORD</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>CONTINUOUS</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>V-CONTINUOUS-SO</t>
-  </si>
-  <si>
-    <t>VERKEERSTEKEN_TRAMSIGNALERING</t>
-  </si>
-  <si>
-    <t>VERKEERSTEKEN_DRAAGCONSTRUCTIE</t>
-  </si>
-  <si>
-    <t>VERKEERSTEKEN_BEBAKENING</t>
-  </si>
-  <si>
-    <t>MARKERING_SYMBOOL</t>
-  </si>
-  <si>
-    <t>MARKERING_PIJL</t>
-  </si>
-  <si>
-    <t>BEWEGWIJZERING_DRAAGCONSTRUCTIE</t>
-  </si>
-  <si>
-    <t>AFZETTING_POLLER</t>
-  </si>
-  <si>
-    <t>AFZETTING_AFSLUITPAAL</t>
-  </si>
-  <si>
-    <t>VERKEERSSPIEGEL_DRAAGCONSTRUCTIE</t>
-  </si>
-  <si>
-    <t>AFZETTING_POLLER_VAST</t>
-  </si>
-  <si>
-    <t>AFZETTING_POLLER_KAST</t>
-  </si>
-  <si>
-    <t>AFZETTING_POLLER_SCANPAAL</t>
-  </si>
-  <si>
-    <t>AFZETTING_POLLER_BEWEEGBAAR</t>
-  </si>
-  <si>
-    <t>BLINDENGELEIDEROUTE_KLANKTEGEL</t>
-  </si>
-  <si>
-    <t>BLINDENGELEIDEROUTE_NOPPENTEGEL</t>
-  </si>
-  <si>
-    <t>BLINDENGELEIDEROUTE_WAARSCHUWINGSTEGEL</t>
-  </si>
-  <si>
-    <t>BEWEGWIJZERING</t>
-  </si>
-  <si>
-    <t>HECTOMETERPAAL</t>
-  </si>
-  <si>
-    <t>VERKEERSSPIEGEL</t>
-  </si>
-  <si>
     <t>MARKERING_PUNTSTUK</t>
   </si>
   <si>
@@ -494,6 +542,12 @@
   </si>
   <si>
     <t>MARKERING_LANGS_STREEP_30270_015</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_CATEGORIE</t>
+  </si>
+  <si>
+    <t>VERKEERSTEKEN_BORD_ANWB</t>
   </si>
   <si>
     <t>VERKEERSTEKEN</t>
@@ -1377,11 +1431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE88145-C812-4B09-B39B-D607FE3974EC}">
-  <dimension ref="A1:AJ100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7250C5-C522-4468-BA1C-776D83331767}">
+  <dimension ref="A1:AJ118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1507,7 +1561,7 @@
         <v>2657</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -1608,7 +1662,7 @@
         <v>3473</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>2657</v>
@@ -1712,7 +1766,7 @@
         <v>3344</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>2657</v>
@@ -1816,7 +1870,7 @@
         <v>3345</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>3344</v>
@@ -1920,7 +1974,7 @@
         <v>3122</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>3344</v>
@@ -2024,7 +2078,7 @@
         <v>3346</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D7">
         <v>3344</v>
@@ -2128,7 +2182,7 @@
         <v>3347</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>3344</v>
@@ -2232,7 +2286,7 @@
         <v>3348</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>3344</v>
@@ -2336,7 +2390,7 @@
         <v>2553</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -2437,7 +2491,7 @@
         <v>2560</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>2553</v>
@@ -2541,7 +2595,7 @@
         <v>2564</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>2553</v>
@@ -2645,7 +2699,7 @@
         <v>2565</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D13">
         <v>2564</v>
@@ -2749,7 +2803,7 @@
         <v>2566</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D14">
         <v>2565</v>
@@ -2853,7 +2907,7 @@
         <v>2567</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D15">
         <v>2564</v>
@@ -2957,7 +3011,7 @@
         <v>2568</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D16">
         <v>2567</v>
@@ -3061,7 +3115,7 @@
         <v>2554</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D17">
         <v>2553</v>
@@ -3165,7 +3219,7 @@
         <v>2559</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D18">
         <v>2553</v>
@@ -3269,7 +3323,7 @@
         <v>2555</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D19">
         <v>2553</v>
@@ -3373,7 +3427,7 @@
         <v>2563</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>2553</v>
@@ -3477,7 +3531,7 @@
         <v>2556</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D21">
         <v>2553</v>
@@ -3581,7 +3635,7 @@
         <v>2557</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <v>2556</v>
@@ -3685,7 +3739,7 @@
         <v>2558</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D23">
         <v>2556</v>
@@ -3789,7 +3843,7 @@
         <v>2561</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D24">
         <v>2553</v>
@@ -3893,7 +3947,7 @@
         <v>3349</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
@@ -4297,7 +4351,7 @@
         <v>2641</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
@@ -4398,7 +4452,7 @@
         <v>2569</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
@@ -4499,7 +4553,7 @@
         <v>2577</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D31">
         <v>2569</v>
@@ -4603,7 +4657,7 @@
         <v>2575</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D32">
         <v>2569</v>
@@ -4707,7 +4761,7 @@
         <v>2618</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D33">
         <v>2569</v>
@@ -4811,7 +4865,7 @@
         <v>2619</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D34">
         <v>2618</v>
@@ -4915,7 +4969,7 @@
         <v>2629</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D35">
         <v>2618</v>
@@ -5019,7 +5073,7 @@
         <v>2635</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D36">
         <v>2629</v>
@@ -5031,7 +5085,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H36">
         <v>7</v>
@@ -5052,7 +5106,7 @@
         <v>41</v>
       </c>
       <c r="N36" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="O36">
         <v>7</v>
@@ -5094,7 +5148,7 @@
         <v>41</v>
       </c>
       <c r="AB36" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AC36">
         <v>7</v>
@@ -5123,7 +5177,7 @@
         <v>2631</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D37">
         <v>2629</v>
@@ -5135,7 +5189,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H37">
         <v>7</v>
@@ -5153,10 +5207,10 @@
         <v>7</v>
       </c>
       <c r="M37" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="N37" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O37">
         <v>7</v>
@@ -5174,10 +5228,10 @@
         <v>7</v>
       </c>
       <c r="T37" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="U37" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V37">
         <v>7</v>
@@ -5195,10 +5249,10 @@
         <v>7</v>
       </c>
       <c r="AA37" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AB37" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC37">
         <v>7</v>
@@ -5216,7 +5270,7 @@
         <v>7</v>
       </c>
       <c r="AH37" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
@@ -5227,7 +5281,7 @@
         <v>2632</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D38">
         <v>2631</v>
@@ -5239,7 +5293,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H38">
         <v>7</v>
@@ -5257,10 +5311,10 @@
         <v>7</v>
       </c>
       <c r="M38" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="N38" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O38">
         <v>7</v>
@@ -5278,10 +5332,10 @@
         <v>7</v>
       </c>
       <c r="T38" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="U38" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V38">
         <v>7</v>
@@ -5299,10 +5353,10 @@
         <v>7</v>
       </c>
       <c r="AA38" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AB38" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC38">
         <v>7</v>
@@ -5320,7 +5374,7 @@
         <v>7</v>
       </c>
       <c r="AH38" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
@@ -5331,7 +5385,7 @@
         <v>3550</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D39">
         <v>2631</v>
@@ -5361,7 +5415,7 @@
         <v>7</v>
       </c>
       <c r="M39" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="N39" t="s">
         <v>40</v>
@@ -5382,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="T39" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="U39" t="s">
         <v>40</v>
@@ -5403,7 +5457,7 @@
         <v>7</v>
       </c>
       <c r="AA39" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AB39" t="s">
         <v>40</v>
@@ -5424,7 +5478,7 @@
         <v>7</v>
       </c>
       <c r="AH39" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
@@ -5435,7 +5489,7 @@
         <v>2630</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D40">
         <v>2629</v>
@@ -5539,7 +5593,7 @@
         <v>2623</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D41">
         <v>2618</v>
@@ -5643,7 +5697,7 @@
         <v>2627</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D42">
         <v>2623</v>
@@ -5655,7 +5709,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H42">
         <v>7</v>
@@ -5676,7 +5730,7 @@
         <v>41</v>
       </c>
       <c r="N42" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O42">
         <v>7</v>
@@ -5697,7 +5751,7 @@
         <v>41</v>
       </c>
       <c r="U42" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V42">
         <v>7</v>
@@ -5718,7 +5772,7 @@
         <v>41</v>
       </c>
       <c r="AB42" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC42">
         <v>7</v>
@@ -5747,7 +5801,7 @@
         <v>2624</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D43">
         <v>2623</v>
@@ -5851,7 +5905,7 @@
         <v>2625</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D44">
         <v>2623</v>
@@ -5863,7 +5917,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H44">
         <v>7</v>
@@ -5884,7 +5938,7 @@
         <v>41</v>
       </c>
       <c r="N44" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="O44">
         <v>7</v>
@@ -5905,7 +5959,7 @@
         <v>41</v>
       </c>
       <c r="U44" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="V44">
         <v>7</v>
@@ -5926,7 +5980,7 @@
         <v>41</v>
       </c>
       <c r="AB44" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="AC44">
         <v>7</v>
@@ -5955,7 +6009,7 @@
         <v>2626</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D45">
         <v>2623</v>
@@ -5967,7 +6021,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H45">
         <v>7</v>
@@ -5988,7 +6042,7 @@
         <v>41</v>
       </c>
       <c r="N45" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="O45">
         <v>7</v>
@@ -6009,7 +6063,7 @@
         <v>41</v>
       </c>
       <c r="U45" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="V45">
         <v>7</v>
@@ -6030,7 +6084,7 @@
         <v>41</v>
       </c>
       <c r="AB45" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AC45">
         <v>7</v>
@@ -6059,7 +6113,7 @@
         <v>3554</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D46">
         <v>2618</v>
@@ -6163,7 +6217,7 @@
         <v>2578</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D47">
         <v>2569</v>
@@ -6267,7 +6321,7 @@
         <v>2579</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D48">
         <v>2578</v>
@@ -6371,7 +6425,7 @@
         <v>3551</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D49">
         <v>2579</v>
@@ -6383,7 +6437,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H49">
         <v>7</v>
@@ -6401,10 +6455,10 @@
         <v>7</v>
       </c>
       <c r="M49" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="N49" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O49">
         <v>7</v>
@@ -6422,10 +6476,10 @@
         <v>7</v>
       </c>
       <c r="T49" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="U49" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V49">
         <v>7</v>
@@ -6443,10 +6497,10 @@
         <v>7</v>
       </c>
       <c r="AA49" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AB49" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC49">
         <v>7</v>
@@ -6464,7 +6518,7 @@
         <v>7</v>
       </c>
       <c r="AH49" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
@@ -6475,7 +6529,7 @@
         <v>3552</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D50">
         <v>3551</v>
@@ -6487,7 +6541,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H50">
         <v>7</v>
@@ -6505,10 +6559,10 @@
         <v>7</v>
       </c>
       <c r="M50" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="N50" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O50">
         <v>7</v>
@@ -6526,10 +6580,10 @@
         <v>7</v>
       </c>
       <c r="T50" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="U50" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V50">
         <v>7</v>
@@ -6547,10 +6601,10 @@
         <v>7</v>
       </c>
       <c r="AA50" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AB50" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC50">
         <v>7</v>
@@ -6568,7 +6622,7 @@
         <v>7</v>
       </c>
       <c r="AH50" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
@@ -6579,7 +6633,7 @@
         <v>2589</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D51">
         <v>2579</v>
@@ -6591,7 +6645,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H51">
         <v>7</v>
@@ -6609,11 +6663,11 @@
         <v>7</v>
       </c>
       <c r="M51" t="s">
+        <v>122</v>
+      </c>
+      <c r="N51" t="s">
         <v>106</v>
       </c>
-      <c r="N51" t="s">
-        <v>90</v>
-      </c>
       <c r="O51">
         <v>7</v>
       </c>
@@ -6630,11 +6684,11 @@
         <v>7</v>
       </c>
       <c r="T51" t="s">
+        <v>122</v>
+      </c>
+      <c r="U51" t="s">
         <v>106</v>
       </c>
-      <c r="U51" t="s">
-        <v>90</v>
-      </c>
       <c r="V51">
         <v>7</v>
       </c>
@@ -6651,11 +6705,11 @@
         <v>7</v>
       </c>
       <c r="AA51" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB51" t="s">
         <v>106</v>
       </c>
-      <c r="AB51" t="s">
-        <v>90</v>
-      </c>
       <c r="AC51">
         <v>7</v>
       </c>
@@ -6672,7 +6726,7 @@
         <v>7</v>
       </c>
       <c r="AH51" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
@@ -6683,7 +6737,7 @@
         <v>2590</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D52">
         <v>2589</v>
@@ -6695,7 +6749,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H52">
         <v>7</v>
@@ -6713,11 +6767,11 @@
         <v>7</v>
       </c>
       <c r="M52" t="s">
+        <v>122</v>
+      </c>
+      <c r="N52" t="s">
         <v>106</v>
       </c>
-      <c r="N52" t="s">
-        <v>90</v>
-      </c>
       <c r="O52">
         <v>7</v>
       </c>
@@ -6734,11 +6788,11 @@
         <v>7</v>
       </c>
       <c r="T52" t="s">
+        <v>122</v>
+      </c>
+      <c r="U52" t="s">
         <v>106</v>
       </c>
-      <c r="U52" t="s">
-        <v>90</v>
-      </c>
       <c r="V52">
         <v>7</v>
       </c>
@@ -6755,11 +6809,11 @@
         <v>7</v>
       </c>
       <c r="AA52" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB52" t="s">
         <v>106</v>
       </c>
-      <c r="AB52" t="s">
-        <v>90</v>
-      </c>
       <c r="AC52">
         <v>7</v>
       </c>
@@ -6776,7 +6830,7 @@
         <v>7</v>
       </c>
       <c r="AH52" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
@@ -6787,7 +6841,7 @@
         <v>2591</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D53">
         <v>2589</v>
@@ -6799,7 +6853,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H53">
         <v>7</v>
@@ -6817,11 +6871,11 @@
         <v>7</v>
       </c>
       <c r="M53" t="s">
+        <v>122</v>
+      </c>
+      <c r="N53" t="s">
         <v>106</v>
       </c>
-      <c r="N53" t="s">
-        <v>90</v>
-      </c>
       <c r="O53">
         <v>7</v>
       </c>
@@ -6838,11 +6892,11 @@
         <v>7</v>
       </c>
       <c r="T53" t="s">
+        <v>122</v>
+      </c>
+      <c r="U53" t="s">
         <v>106</v>
       </c>
-      <c r="U53" t="s">
-        <v>90</v>
-      </c>
       <c r="V53">
         <v>7</v>
       </c>
@@ -6859,11 +6913,11 @@
         <v>7</v>
       </c>
       <c r="AA53" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB53" t="s">
         <v>106</v>
       </c>
-      <c r="AB53" t="s">
-        <v>90</v>
-      </c>
       <c r="AC53">
         <v>7</v>
       </c>
@@ -6880,7 +6934,7 @@
         <v>7</v>
       </c>
       <c r="AH53" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
@@ -6891,7 +6945,7 @@
         <v>2592</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D54">
         <v>2579</v>
@@ -6903,7 +6957,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H54">
         <v>7</v>
@@ -6921,10 +6975,10 @@
         <v>7</v>
       </c>
       <c r="M54" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="N54" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O54">
         <v>7</v>
@@ -6942,10 +6996,10 @@
         <v>7</v>
       </c>
       <c r="T54" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="U54" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V54">
         <v>7</v>
@@ -6963,10 +7017,10 @@
         <v>7</v>
       </c>
       <c r="AA54" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AB54" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC54">
         <v>7</v>
@@ -6984,7 +7038,7 @@
         <v>7</v>
       </c>
       <c r="AH54" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
@@ -6995,7 +7049,7 @@
         <v>2593</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D55">
         <v>2592</v>
@@ -7007,7 +7061,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H55">
         <v>7</v>
@@ -7025,10 +7079,10 @@
         <v>7</v>
       </c>
       <c r="M55" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="N55" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O55">
         <v>7</v>
@@ -7046,10 +7100,10 @@
         <v>7</v>
       </c>
       <c r="T55" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="U55" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V55">
         <v>7</v>
@@ -7067,10 +7121,10 @@
         <v>7</v>
       </c>
       <c r="AA55" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AB55" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC55">
         <v>7</v>
@@ -7088,7 +7142,7 @@
         <v>7</v>
       </c>
       <c r="AH55" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.35">
@@ -7099,7 +7153,7 @@
         <v>3018</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D56">
         <v>2592</v>
@@ -7111,7 +7165,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H56">
         <v>7</v>
@@ -7129,10 +7183,10 @@
         <v>7</v>
       </c>
       <c r="M56" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="N56" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O56">
         <v>7</v>
@@ -7150,10 +7204,10 @@
         <v>7</v>
       </c>
       <c r="T56" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="U56" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V56">
         <v>7</v>
@@ -7171,10 +7225,10 @@
         <v>7</v>
       </c>
       <c r="AA56" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AB56" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC56">
         <v>7</v>
@@ -7192,7 +7246,7 @@
         <v>7</v>
       </c>
       <c r="AH56" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
@@ -7203,7 +7257,7 @@
         <v>2594</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D57">
         <v>2592</v>
@@ -7233,7 +7287,7 @@
         <v>7</v>
       </c>
       <c r="M57" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="N57" t="s">
         <v>40</v>
@@ -7254,7 +7308,7 @@
         <v>7</v>
       </c>
       <c r="T57" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="U57" t="s">
         <v>40</v>
@@ -7275,7 +7329,7 @@
         <v>7</v>
       </c>
       <c r="AA57" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AB57" t="s">
         <v>40</v>
@@ -7296,7 +7350,7 @@
         <v>7</v>
       </c>
       <c r="AH57" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
@@ -7307,7 +7361,7 @@
         <v>2595</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D58">
         <v>2592</v>
@@ -7319,7 +7373,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H58">
         <v>7</v>
@@ -7337,10 +7391,10 @@
         <v>7</v>
       </c>
       <c r="M58" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="N58" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="O58">
         <v>7</v>
@@ -7358,10 +7412,10 @@
         <v>7</v>
       </c>
       <c r="T58" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="U58" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="V58">
         <v>7</v>
@@ -7379,10 +7433,10 @@
         <v>7</v>
       </c>
       <c r="AA58" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AB58" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="AC58">
         <v>7</v>
@@ -7400,7 +7454,7 @@
         <v>7</v>
       </c>
       <c r="AH58" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
@@ -7411,7 +7465,7 @@
         <v>2596</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D59">
         <v>2592</v>
@@ -7423,7 +7477,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H59">
         <v>7</v>
@@ -7441,10 +7495,10 @@
         <v>7</v>
       </c>
       <c r="M59" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="N59" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="O59">
         <v>7</v>
@@ -7462,10 +7516,10 @@
         <v>7</v>
       </c>
       <c r="T59" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="U59" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="V59">
         <v>7</v>
@@ -7483,10 +7537,10 @@
         <v>7</v>
       </c>
       <c r="AA59" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AB59" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AC59">
         <v>7</v>
@@ -7504,7 +7558,7 @@
         <v>7</v>
       </c>
       <c r="AH59" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.35">
@@ -7515,7 +7569,7 @@
         <v>2610</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D60">
         <v>2579</v>
@@ -7527,7 +7581,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H60">
         <v>7</v>
@@ -7545,10 +7599,10 @@
         <v>7</v>
       </c>
       <c r="M60" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="N60" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O60">
         <v>7</v>
@@ -7566,10 +7620,10 @@
         <v>7</v>
       </c>
       <c r="T60" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="U60" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V60">
         <v>7</v>
@@ -7587,10 +7641,10 @@
         <v>7</v>
       </c>
       <c r="AA60" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="AB60" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC60">
         <v>7</v>
@@ -7608,7 +7662,7 @@
         <v>7</v>
       </c>
       <c r="AH60" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.35">
@@ -7619,7 +7673,7 @@
         <v>2611</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D61">
         <v>2610</v>
@@ -7631,7 +7685,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H61">
         <v>7</v>
@@ -7649,10 +7703,10 @@
         <v>7</v>
       </c>
       <c r="M61" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="N61" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O61">
         <v>7</v>
@@ -7670,10 +7724,10 @@
         <v>7</v>
       </c>
       <c r="T61" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="U61" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V61">
         <v>7</v>
@@ -7691,10 +7745,10 @@
         <v>7</v>
       </c>
       <c r="AA61" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="AB61" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC61">
         <v>7</v>
@@ -7712,7 +7766,7 @@
         <v>7</v>
       </c>
       <c r="AH61" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.35">
@@ -7723,7 +7777,7 @@
         <v>3019</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D62">
         <v>2610</v>
@@ -7735,7 +7789,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H62">
         <v>7</v>
@@ -7753,10 +7807,10 @@
         <v>7</v>
       </c>
       <c r="M62" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="N62" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O62">
         <v>7</v>
@@ -7774,10 +7828,10 @@
         <v>7</v>
       </c>
       <c r="T62" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="U62" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V62">
         <v>7</v>
@@ -7795,10 +7849,10 @@
         <v>7</v>
       </c>
       <c r="AA62" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="AB62" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC62">
         <v>7</v>
@@ -7816,7 +7870,7 @@
         <v>7</v>
       </c>
       <c r="AH62" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.35">
@@ -7827,7 +7881,7 @@
         <v>2612</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D63">
         <v>2579</v>
@@ -7839,7 +7893,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H63">
         <v>7</v>
@@ -7857,10 +7911,10 @@
         <v>7</v>
       </c>
       <c r="M63" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N63" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O63">
         <v>7</v>
@@ -7878,10 +7932,10 @@
         <v>7</v>
       </c>
       <c r="T63" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="U63" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V63">
         <v>7</v>
@@ -7899,10 +7953,10 @@
         <v>7</v>
       </c>
       <c r="AA63" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="AB63" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC63">
         <v>7</v>
@@ -7920,7 +7974,7 @@
         <v>7</v>
       </c>
       <c r="AH63" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
@@ -7931,7 +7985,7 @@
         <v>2613</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D64">
         <v>2612</v>
@@ -7943,7 +7997,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H64">
         <v>7</v>
@@ -7961,10 +8015,10 @@
         <v>7</v>
       </c>
       <c r="M64" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N64" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O64">
         <v>7</v>
@@ -7982,10 +8036,10 @@
         <v>7</v>
       </c>
       <c r="T64" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="U64" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V64">
         <v>7</v>
@@ -8003,10 +8057,10 @@
         <v>7</v>
       </c>
       <c r="AA64" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="AB64" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC64">
         <v>7</v>
@@ -8024,7 +8078,7 @@
         <v>7</v>
       </c>
       <c r="AH64" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
@@ -8035,7 +8089,7 @@
         <v>3020</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D65">
         <v>2612</v>
@@ -8047,7 +8101,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H65">
         <v>7</v>
@@ -8065,10 +8119,10 @@
         <v>7</v>
       </c>
       <c r="M65" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N65" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O65">
         <v>7</v>
@@ -8086,10 +8140,10 @@
         <v>7</v>
       </c>
       <c r="T65" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="U65" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V65">
         <v>7</v>
@@ -8107,10 +8161,10 @@
         <v>7</v>
       </c>
       <c r="AA65" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="AB65" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC65">
         <v>7</v>
@@ -8128,7 +8182,7 @@
         <v>7</v>
       </c>
       <c r="AH65" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.35">
@@ -8139,7 +8193,7 @@
         <v>2597</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D66">
         <v>2579</v>
@@ -8151,7 +8205,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H66">
         <v>7</v>
@@ -8169,10 +8223,10 @@
         <v>7</v>
       </c>
       <c r="M66" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="N66" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O66">
         <v>7</v>
@@ -8190,10 +8244,10 @@
         <v>7</v>
       </c>
       <c r="T66" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="U66" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V66">
         <v>7</v>
@@ -8211,10 +8265,10 @@
         <v>7</v>
       </c>
       <c r="AA66" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="AB66" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC66">
         <v>7</v>
@@ -8232,7 +8286,7 @@
         <v>7</v>
       </c>
       <c r="AH66" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
@@ -8243,7 +8297,7 @@
         <v>2598</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D67">
         <v>2597</v>
@@ -8255,7 +8309,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H67">
         <v>7</v>
@@ -8273,10 +8327,10 @@
         <v>7</v>
       </c>
       <c r="M67" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="N67" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O67">
         <v>7</v>
@@ -8294,10 +8348,10 @@
         <v>7</v>
       </c>
       <c r="T67" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="U67" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V67">
         <v>7</v>
@@ -8315,10 +8369,10 @@
         <v>7</v>
       </c>
       <c r="AA67" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="AB67" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC67">
         <v>7</v>
@@ -8336,7 +8390,7 @@
         <v>7</v>
       </c>
       <c r="AH67" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.35">
@@ -8347,7 +8401,7 @@
         <v>2599</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D68">
         <v>2579</v>
@@ -8359,7 +8413,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H68">
         <v>7</v>
@@ -8377,10 +8431,10 @@
         <v>7</v>
       </c>
       <c r="M68" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="N68" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O68">
         <v>7</v>
@@ -8398,10 +8452,10 @@
         <v>7</v>
       </c>
       <c r="T68" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="U68" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V68">
         <v>7</v>
@@ -8419,10 +8473,10 @@
         <v>7</v>
       </c>
       <c r="AA68" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="AB68" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC68">
         <v>7</v>
@@ -8440,7 +8494,7 @@
         <v>7</v>
       </c>
       <c r="AH68" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.35">
@@ -8451,7 +8505,7 @@
         <v>2600</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D69">
         <v>2599</v>
@@ -8463,7 +8517,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H69">
         <v>7</v>
@@ -8481,10 +8535,10 @@
         <v>7</v>
       </c>
       <c r="M69" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="N69" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O69">
         <v>7</v>
@@ -8502,10 +8556,10 @@
         <v>7</v>
       </c>
       <c r="T69" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="U69" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V69">
         <v>7</v>
@@ -8523,10 +8577,10 @@
         <v>7</v>
       </c>
       <c r="AA69" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="AB69" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC69">
         <v>7</v>
@@ -8544,7 +8598,7 @@
         <v>7</v>
       </c>
       <c r="AH69" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
@@ -8555,7 +8609,7 @@
         <v>2601</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D70">
         <v>2579</v>
@@ -8567,7 +8621,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H70">
         <v>7</v>
@@ -8585,10 +8639,10 @@
         <v>7</v>
       </c>
       <c r="M70" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="N70" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O70">
         <v>7</v>
@@ -8606,10 +8660,10 @@
         <v>7</v>
       </c>
       <c r="T70" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="U70" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V70">
         <v>7</v>
@@ -8627,10 +8681,10 @@
         <v>7</v>
       </c>
       <c r="AA70" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AB70" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC70">
         <v>7</v>
@@ -8648,7 +8702,7 @@
         <v>7</v>
       </c>
       <c r="AH70" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.35">
@@ -8659,7 +8713,7 @@
         <v>2602</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D71">
         <v>2601</v>
@@ -8671,7 +8725,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H71">
         <v>7</v>
@@ -8689,10 +8743,10 @@
         <v>7</v>
       </c>
       <c r="M71" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="N71" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O71">
         <v>7</v>
@@ -8710,10 +8764,10 @@
         <v>7</v>
       </c>
       <c r="T71" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="U71" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V71">
         <v>7</v>
@@ -8731,10 +8785,10 @@
         <v>7</v>
       </c>
       <c r="AA71" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AB71" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC71">
         <v>7</v>
@@ -8752,7 +8806,7 @@
         <v>7</v>
       </c>
       <c r="AH71" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
@@ -8763,7 +8817,7 @@
         <v>2603</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D72">
         <v>2601</v>
@@ -8775,7 +8829,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H72">
         <v>7</v>
@@ -8793,10 +8847,10 @@
         <v>7</v>
       </c>
       <c r="M72" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="N72" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O72">
         <v>7</v>
@@ -8814,10 +8868,10 @@
         <v>7</v>
       </c>
       <c r="T72" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="U72" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V72">
         <v>7</v>
@@ -8835,10 +8889,10 @@
         <v>7</v>
       </c>
       <c r="AA72" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AB72" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC72">
         <v>7</v>
@@ -8856,7 +8910,7 @@
         <v>7</v>
       </c>
       <c r="AH72" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
@@ -8867,7 +8921,7 @@
         <v>2604</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D73">
         <v>2601</v>
@@ -8879,7 +8933,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H73">
         <v>7</v>
@@ -8897,10 +8951,10 @@
         <v>7</v>
       </c>
       <c r="M73" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="N73" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="O73">
         <v>7</v>
@@ -8918,10 +8972,10 @@
         <v>7</v>
       </c>
       <c r="T73" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="U73" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="V73">
         <v>7</v>
@@ -8939,10 +8993,10 @@
         <v>7</v>
       </c>
       <c r="AA73" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AB73" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="AC73">
         <v>7</v>
@@ -8960,7 +9014,7 @@
         <v>7</v>
       </c>
       <c r="AH73" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.35">
@@ -8971,7 +9025,7 @@
         <v>2605</v>
       </c>
       <c r="C74" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D74">
         <v>2579</v>
@@ -8983,7 +9037,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H74">
         <v>7</v>
@@ -9001,10 +9055,10 @@
         <v>7</v>
       </c>
       <c r="M74" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="N74" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="O74">
         <v>7</v>
@@ -9022,10 +9076,10 @@
         <v>7</v>
       </c>
       <c r="T74" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="U74" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="V74">
         <v>7</v>
@@ -9043,10 +9097,10 @@
         <v>7</v>
       </c>
       <c r="AA74" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="AB74" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="AC74">
         <v>7</v>
@@ -9064,7 +9118,7 @@
         <v>7</v>
       </c>
       <c r="AH74" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.35">
@@ -9075,7 +9129,7 @@
         <v>3553</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D75">
         <v>2605</v>
@@ -9087,7 +9141,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H75">
         <v>7</v>
@@ -9105,10 +9159,10 @@
         <v>7</v>
       </c>
       <c r="M75" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="N75" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O75">
         <v>7</v>
@@ -9126,10 +9180,10 @@
         <v>7</v>
       </c>
       <c r="T75" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="U75" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V75">
         <v>7</v>
@@ -9147,10 +9201,10 @@
         <v>7</v>
       </c>
       <c r="AA75" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="AB75" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC75">
         <v>7</v>
@@ -9168,7 +9222,7 @@
         <v>7</v>
       </c>
       <c r="AH75" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.35">
@@ -9179,7 +9233,7 @@
         <v>2606</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D76">
         <v>2605</v>
@@ -9191,7 +9245,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H76">
         <v>7</v>
@@ -9209,10 +9263,10 @@
         <v>7</v>
       </c>
       <c r="M76" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="N76" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="O76">
         <v>7</v>
@@ -9230,10 +9284,10 @@
         <v>7</v>
       </c>
       <c r="T76" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="U76" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="V76">
         <v>7</v>
@@ -9251,10 +9305,10 @@
         <v>7</v>
       </c>
       <c r="AA76" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="AB76" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="AC76">
         <v>7</v>
@@ -9272,7 +9326,7 @@
         <v>7</v>
       </c>
       <c r="AH76" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.35">
@@ -9283,7 +9337,7 @@
         <v>2607</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D77">
         <v>2579</v>
@@ -9295,7 +9349,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H77">
         <v>7</v>
@@ -9313,10 +9367,10 @@
         <v>7</v>
       </c>
       <c r="M77" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="N77" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O77">
         <v>7</v>
@@ -9334,10 +9388,10 @@
         <v>7</v>
       </c>
       <c r="T77" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="U77" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V77">
         <v>7</v>
@@ -9355,10 +9409,10 @@
         <v>7</v>
       </c>
       <c r="AA77" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="AB77" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC77">
         <v>7</v>
@@ -9376,7 +9430,7 @@
         <v>7</v>
       </c>
       <c r="AH77" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.35">
@@ -9387,7 +9441,7 @@
         <v>2608</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D78">
         <v>2607</v>
@@ -9399,7 +9453,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H78">
         <v>7</v>
@@ -9417,10 +9471,10 @@
         <v>7</v>
       </c>
       <c r="M78" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="N78" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O78">
         <v>7</v>
@@ -9438,10 +9492,10 @@
         <v>7</v>
       </c>
       <c r="T78" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="U78" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V78">
         <v>7</v>
@@ -9459,10 +9513,10 @@
         <v>7</v>
       </c>
       <c r="AA78" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="AB78" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC78">
         <v>7</v>
@@ -9480,7 +9534,7 @@
         <v>7</v>
       </c>
       <c r="AH78" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.35">
@@ -9491,7 +9545,7 @@
         <v>3549</v>
       </c>
       <c r="C79" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D79">
         <v>2607</v>
@@ -9503,7 +9557,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H79">
         <v>7</v>
@@ -9521,10 +9575,10 @@
         <v>7</v>
       </c>
       <c r="M79" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="N79" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="O79">
         <v>7</v>
@@ -9542,10 +9596,10 @@
         <v>7</v>
       </c>
       <c r="T79" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="U79" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="V79">
         <v>7</v>
@@ -9563,10 +9617,10 @@
         <v>7</v>
       </c>
       <c r="AA79" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="AB79" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="AC79">
         <v>7</v>
@@ -9584,7 +9638,7 @@
         <v>7</v>
       </c>
       <c r="AH79" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.35">
@@ -9595,7 +9649,7 @@
         <v>2580</v>
       </c>
       <c r="C80" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D80">
         <v>2579</v>
@@ -9607,7 +9661,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H80">
         <v>7</v>
@@ -9628,7 +9682,7 @@
         <v>41</v>
       </c>
       <c r="N80" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O80">
         <v>7</v>
@@ -9649,7 +9703,7 @@
         <v>41</v>
       </c>
       <c r="U80" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V80">
         <v>7</v>
@@ -9670,7 +9724,7 @@
         <v>41</v>
       </c>
       <c r="AB80" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC80">
         <v>7</v>
@@ -9699,7 +9753,7 @@
         <v>2581</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D81">
         <v>2580</v>
@@ -9711,7 +9765,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -9732,7 +9786,7 @@
         <v>41</v>
       </c>
       <c r="N81" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O81">
         <v>7</v>
@@ -9753,7 +9807,7 @@
         <v>41</v>
       </c>
       <c r="U81" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V81">
         <v>7</v>
@@ -9774,7 +9828,7 @@
         <v>41</v>
       </c>
       <c r="AB81" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC81">
         <v>7</v>
@@ -9803,7 +9857,7 @@
         <v>2582</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D82">
         <v>2580</v>
@@ -9815,7 +9869,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H82">
         <v>7</v>
@@ -9836,7 +9890,7 @@
         <v>41</v>
       </c>
       <c r="N82" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O82">
         <v>7</v>
@@ -9857,7 +9911,7 @@
         <v>41</v>
       </c>
       <c r="U82" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V82">
         <v>7</v>
@@ -9878,7 +9932,7 @@
         <v>41</v>
       </c>
       <c r="AB82" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC82">
         <v>7</v>
@@ -9907,7 +9961,7 @@
         <v>2583</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D83">
         <v>2580</v>
@@ -9919,7 +9973,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H83">
         <v>7</v>
@@ -9940,7 +9994,7 @@
         <v>41</v>
       </c>
       <c r="N83" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O83">
         <v>7</v>
@@ -9961,7 +10015,7 @@
         <v>41</v>
       </c>
       <c r="U83" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V83">
         <v>7</v>
@@ -9982,7 +10036,7 @@
         <v>41</v>
       </c>
       <c r="AB83" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AC83">
         <v>7</v>
@@ -10011,7 +10065,7 @@
         <v>2584</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D84">
         <v>2580</v>
@@ -10115,7 +10169,7 @@
         <v>2585</v>
       </c>
       <c r="C85" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D85">
         <v>2580</v>
@@ -10127,7 +10181,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H85">
         <v>7</v>
@@ -10148,7 +10202,7 @@
         <v>41</v>
       </c>
       <c r="N85" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="O85">
         <v>7</v>
@@ -10169,7 +10223,7 @@
         <v>41</v>
       </c>
       <c r="U85" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="V85">
         <v>7</v>
@@ -10190,7 +10244,7 @@
         <v>41</v>
       </c>
       <c r="AB85" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AC85">
         <v>7</v>
@@ -10219,7 +10273,7 @@
         <v>2570</v>
       </c>
       <c r="C86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D86">
         <v>2569</v>
@@ -10323,7 +10377,7 @@
         <v>2572</v>
       </c>
       <c r="C87" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D87">
         <v>2569</v>
@@ -10427,7 +10481,7 @@
         <v>2573</v>
       </c>
       <c r="C88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D88">
         <v>2569</v>
@@ -10531,7 +10585,7 @@
         <v>2571</v>
       </c>
       <c r="C89" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D89">
         <v>2569</v>
@@ -10635,7 +10689,7 @@
         <v>2658</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
@@ -10736,7 +10790,7 @@
         <v>2655</v>
       </c>
       <c r="C91" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
@@ -10837,7 +10891,7 @@
         <v>2659</v>
       </c>
       <c r="C92" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
@@ -10938,7 +10992,7 @@
         <v>3350</v>
       </c>
       <c r="C93" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
@@ -11039,7 +11093,7 @@
         <v>3351</v>
       </c>
       <c r="C94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D94">
         <v>3350</v>
@@ -11143,7 +11197,7 @@
         <v>2637</v>
       </c>
       <c r="C95" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
@@ -11244,7 +11298,7 @@
         <v>2639</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D96">
         <v>2637</v>
@@ -11348,7 +11402,7 @@
         <v>2638</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D97">
         <v>2637</v>
@@ -11448,14 +11502,11 @@
       <c r="A98" t="s">
         <v>36</v>
       </c>
-      <c r="B98">
-        <v>2640</v>
-      </c>
       <c r="C98" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="D98">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
@@ -11552,14 +11603,11 @@
       <c r="A99" t="s">
         <v>36</v>
       </c>
-      <c r="B99">
-        <v>4101</v>
-      </c>
       <c r="C99" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="D99">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
@@ -11656,11 +11704,8 @@
       <c r="A100" t="s">
         <v>36</v>
       </c>
-      <c r="B100">
-        <v>2948</v>
-      </c>
       <c r="C100" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
@@ -11672,10 +11717,10 @@
         <v>40</v>
       </c>
       <c r="H100">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="I100">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="J100">
         <v>7</v>
@@ -11693,10 +11738,10 @@
         <v>42</v>
       </c>
       <c r="O100">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="P100">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -11714,10 +11759,10 @@
         <v>42</v>
       </c>
       <c r="V100">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="W100">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="X100">
         <v>7</v>
@@ -11735,10 +11780,10 @@
         <v>42</v>
       </c>
       <c r="AC100">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="AD100">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="AE100">
         <v>7</v>
@@ -11753,10 +11798,1804 @@
         <v>43</v>
       </c>
     </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" t="s">
+        <v>72</v>
+      </c>
+      <c r="E101" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101" t="s">
+        <v>40</v>
+      </c>
+      <c r="H101">
+        <v>7</v>
+      </c>
+      <c r="I101">
+        <v>7</v>
+      </c>
+      <c r="J101">
+        <v>7</v>
+      </c>
+      <c r="K101">
+        <v>7</v>
+      </c>
+      <c r="L101">
+        <v>253</v>
+      </c>
+      <c r="M101" t="s">
+        <v>41</v>
+      </c>
+      <c r="N101" t="s">
+        <v>42</v>
+      </c>
+      <c r="O101">
+        <v>7</v>
+      </c>
+      <c r="P101">
+        <v>7</v>
+      </c>
+      <c r="Q101">
+        <v>7</v>
+      </c>
+      <c r="R101">
+        <v>7</v>
+      </c>
+      <c r="S101">
+        <v>253</v>
+      </c>
+      <c r="T101" t="s">
+        <v>41</v>
+      </c>
+      <c r="U101" t="s">
+        <v>42</v>
+      </c>
+      <c r="V101">
+        <v>7</v>
+      </c>
+      <c r="W101">
+        <v>7</v>
+      </c>
+      <c r="X101">
+        <v>7</v>
+      </c>
+      <c r="Y101">
+        <v>7</v>
+      </c>
+      <c r="Z101">
+        <v>253</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC101">
+        <v>7</v>
+      </c>
+      <c r="AD101">
+        <v>7</v>
+      </c>
+      <c r="AE101">
+        <v>7</v>
+      </c>
+      <c r="AF101">
+        <v>7</v>
+      </c>
+      <c r="AG101">
+        <v>253</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" t="s">
+        <v>71</v>
+      </c>
+      <c r="E102" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" t="s">
+        <v>39</v>
+      </c>
+      <c r="G102" t="s">
+        <v>40</v>
+      </c>
+      <c r="H102">
+        <v>7</v>
+      </c>
+      <c r="I102">
+        <v>7</v>
+      </c>
+      <c r="J102">
+        <v>7</v>
+      </c>
+      <c r="K102">
+        <v>7</v>
+      </c>
+      <c r="L102">
+        <v>253</v>
+      </c>
+      <c r="M102" t="s">
+        <v>41</v>
+      </c>
+      <c r="N102" t="s">
+        <v>42</v>
+      </c>
+      <c r="O102">
+        <v>7</v>
+      </c>
+      <c r="P102">
+        <v>7</v>
+      </c>
+      <c r="Q102">
+        <v>7</v>
+      </c>
+      <c r="R102">
+        <v>7</v>
+      </c>
+      <c r="S102">
+        <v>253</v>
+      </c>
+      <c r="T102" t="s">
+        <v>41</v>
+      </c>
+      <c r="U102" t="s">
+        <v>42</v>
+      </c>
+      <c r="V102">
+        <v>7</v>
+      </c>
+      <c r="W102">
+        <v>7</v>
+      </c>
+      <c r="X102">
+        <v>7</v>
+      </c>
+      <c r="Y102">
+        <v>7</v>
+      </c>
+      <c r="Z102">
+        <v>253</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC102">
+        <v>7</v>
+      </c>
+      <c r="AD102">
+        <v>7</v>
+      </c>
+      <c r="AE102">
+        <v>7</v>
+      </c>
+      <c r="AF102">
+        <v>7</v>
+      </c>
+      <c r="AG102">
+        <v>253</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" t="s">
+        <v>77</v>
+      </c>
+      <c r="E103" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" t="s">
+        <v>40</v>
+      </c>
+      <c r="H103">
+        <v>7</v>
+      </c>
+      <c r="I103">
+        <v>7</v>
+      </c>
+      <c r="J103">
+        <v>7</v>
+      </c>
+      <c r="K103">
+        <v>7</v>
+      </c>
+      <c r="L103">
+        <v>253</v>
+      </c>
+      <c r="M103" t="s">
+        <v>41</v>
+      </c>
+      <c r="N103" t="s">
+        <v>42</v>
+      </c>
+      <c r="O103">
+        <v>7</v>
+      </c>
+      <c r="P103">
+        <v>7</v>
+      </c>
+      <c r="Q103">
+        <v>7</v>
+      </c>
+      <c r="R103">
+        <v>7</v>
+      </c>
+      <c r="S103">
+        <v>253</v>
+      </c>
+      <c r="T103" t="s">
+        <v>41</v>
+      </c>
+      <c r="U103" t="s">
+        <v>42</v>
+      </c>
+      <c r="V103">
+        <v>7</v>
+      </c>
+      <c r="W103">
+        <v>7</v>
+      </c>
+      <c r="X103">
+        <v>7</v>
+      </c>
+      <c r="Y103">
+        <v>7</v>
+      </c>
+      <c r="Z103">
+        <v>253</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC103">
+        <v>7</v>
+      </c>
+      <c r="AD103">
+        <v>7</v>
+      </c>
+      <c r="AE103">
+        <v>7</v>
+      </c>
+      <c r="AF103">
+        <v>7</v>
+      </c>
+      <c r="AG103">
+        <v>253</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" t="s">
+        <v>74</v>
+      </c>
+      <c r="E104" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" t="s">
+        <v>39</v>
+      </c>
+      <c r="G104" t="s">
+        <v>40</v>
+      </c>
+      <c r="H104">
+        <v>7</v>
+      </c>
+      <c r="I104">
+        <v>7</v>
+      </c>
+      <c r="J104">
+        <v>7</v>
+      </c>
+      <c r="K104">
+        <v>7</v>
+      </c>
+      <c r="L104">
+        <v>253</v>
+      </c>
+      <c r="M104" t="s">
+        <v>41</v>
+      </c>
+      <c r="N104" t="s">
+        <v>42</v>
+      </c>
+      <c r="O104">
+        <v>7</v>
+      </c>
+      <c r="P104">
+        <v>7</v>
+      </c>
+      <c r="Q104">
+        <v>7</v>
+      </c>
+      <c r="R104">
+        <v>7</v>
+      </c>
+      <c r="S104">
+        <v>253</v>
+      </c>
+      <c r="T104" t="s">
+        <v>41</v>
+      </c>
+      <c r="U104" t="s">
+        <v>42</v>
+      </c>
+      <c r="V104">
+        <v>7</v>
+      </c>
+      <c r="W104">
+        <v>7</v>
+      </c>
+      <c r="X104">
+        <v>7</v>
+      </c>
+      <c r="Y104">
+        <v>7</v>
+      </c>
+      <c r="Z104">
+        <v>253</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC104">
+        <v>7</v>
+      </c>
+      <c r="AD104">
+        <v>7</v>
+      </c>
+      <c r="AE104">
+        <v>7</v>
+      </c>
+      <c r="AF104">
+        <v>7</v>
+      </c>
+      <c r="AG104">
+        <v>253</v>
+      </c>
+      <c r="AH104" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" t="s">
+        <v>76</v>
+      </c>
+      <c r="E105" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" t="s">
+        <v>40</v>
+      </c>
+      <c r="H105">
+        <v>7</v>
+      </c>
+      <c r="I105">
+        <v>7</v>
+      </c>
+      <c r="J105">
+        <v>7</v>
+      </c>
+      <c r="K105">
+        <v>7</v>
+      </c>
+      <c r="L105">
+        <v>253</v>
+      </c>
+      <c r="M105" t="s">
+        <v>41</v>
+      </c>
+      <c r="N105" t="s">
+        <v>42</v>
+      </c>
+      <c r="O105">
+        <v>7</v>
+      </c>
+      <c r="P105">
+        <v>7</v>
+      </c>
+      <c r="Q105">
+        <v>7</v>
+      </c>
+      <c r="R105">
+        <v>7</v>
+      </c>
+      <c r="S105">
+        <v>253</v>
+      </c>
+      <c r="T105" t="s">
+        <v>41</v>
+      </c>
+      <c r="U105" t="s">
+        <v>42</v>
+      </c>
+      <c r="V105">
+        <v>7</v>
+      </c>
+      <c r="W105">
+        <v>7</v>
+      </c>
+      <c r="X105">
+        <v>7</v>
+      </c>
+      <c r="Y105">
+        <v>7</v>
+      </c>
+      <c r="Z105">
+        <v>253</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC105">
+        <v>7</v>
+      </c>
+      <c r="AD105">
+        <v>7</v>
+      </c>
+      <c r="AE105">
+        <v>7</v>
+      </c>
+      <c r="AF105">
+        <v>7</v>
+      </c>
+      <c r="AG105">
+        <v>253</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" t="s">
+        <v>75</v>
+      </c>
+      <c r="E106" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" t="s">
+        <v>40</v>
+      </c>
+      <c r="H106">
+        <v>7</v>
+      </c>
+      <c r="I106">
+        <v>7</v>
+      </c>
+      <c r="J106">
+        <v>7</v>
+      </c>
+      <c r="K106">
+        <v>7</v>
+      </c>
+      <c r="L106">
+        <v>253</v>
+      </c>
+      <c r="M106" t="s">
+        <v>41</v>
+      </c>
+      <c r="N106" t="s">
+        <v>42</v>
+      </c>
+      <c r="O106">
+        <v>7</v>
+      </c>
+      <c r="P106">
+        <v>7</v>
+      </c>
+      <c r="Q106">
+        <v>7</v>
+      </c>
+      <c r="R106">
+        <v>7</v>
+      </c>
+      <c r="S106">
+        <v>253</v>
+      </c>
+      <c r="T106" t="s">
+        <v>41</v>
+      </c>
+      <c r="U106" t="s">
+        <v>42</v>
+      </c>
+      <c r="V106">
+        <v>7</v>
+      </c>
+      <c r="W106">
+        <v>7</v>
+      </c>
+      <c r="X106">
+        <v>7</v>
+      </c>
+      <c r="Y106">
+        <v>7</v>
+      </c>
+      <c r="Z106">
+        <v>253</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC106">
+        <v>7</v>
+      </c>
+      <c r="AD106">
+        <v>7</v>
+      </c>
+      <c r="AE106">
+        <v>7</v>
+      </c>
+      <c r="AF106">
+        <v>7</v>
+      </c>
+      <c r="AG106">
+        <v>253</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" t="s">
+        <v>73</v>
+      </c>
+      <c r="E107" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" t="s">
+        <v>40</v>
+      </c>
+      <c r="H107">
+        <v>7</v>
+      </c>
+      <c r="I107">
+        <v>7</v>
+      </c>
+      <c r="J107">
+        <v>7</v>
+      </c>
+      <c r="K107">
+        <v>7</v>
+      </c>
+      <c r="L107">
+        <v>253</v>
+      </c>
+      <c r="M107" t="s">
+        <v>41</v>
+      </c>
+      <c r="N107" t="s">
+        <v>42</v>
+      </c>
+      <c r="O107">
+        <v>7</v>
+      </c>
+      <c r="P107">
+        <v>7</v>
+      </c>
+      <c r="Q107">
+        <v>7</v>
+      </c>
+      <c r="R107">
+        <v>7</v>
+      </c>
+      <c r="S107">
+        <v>253</v>
+      </c>
+      <c r="T107" t="s">
+        <v>41</v>
+      </c>
+      <c r="U107" t="s">
+        <v>42</v>
+      </c>
+      <c r="V107">
+        <v>7</v>
+      </c>
+      <c r="W107">
+        <v>7</v>
+      </c>
+      <c r="X107">
+        <v>7</v>
+      </c>
+      <c r="Y107">
+        <v>7</v>
+      </c>
+      <c r="Z107">
+        <v>253</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC107">
+        <v>7</v>
+      </c>
+      <c r="AD107">
+        <v>7</v>
+      </c>
+      <c r="AE107">
+        <v>7</v>
+      </c>
+      <c r="AF107">
+        <v>7</v>
+      </c>
+      <c r="AG107">
+        <v>253</v>
+      </c>
+      <c r="AH107" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="E108" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" t="s">
+        <v>39</v>
+      </c>
+      <c r="G108" t="s">
+        <v>40</v>
+      </c>
+      <c r="H108">
+        <v>7</v>
+      </c>
+      <c r="I108">
+        <v>7</v>
+      </c>
+      <c r="J108">
+        <v>7</v>
+      </c>
+      <c r="K108">
+        <v>7</v>
+      </c>
+      <c r="L108">
+        <v>253</v>
+      </c>
+      <c r="M108" t="s">
+        <v>41</v>
+      </c>
+      <c r="N108" t="s">
+        <v>42</v>
+      </c>
+      <c r="O108">
+        <v>7</v>
+      </c>
+      <c r="P108">
+        <v>7</v>
+      </c>
+      <c r="Q108">
+        <v>7</v>
+      </c>
+      <c r="R108">
+        <v>7</v>
+      </c>
+      <c r="S108">
+        <v>253</v>
+      </c>
+      <c r="T108" t="s">
+        <v>41</v>
+      </c>
+      <c r="U108" t="s">
+        <v>42</v>
+      </c>
+      <c r="V108">
+        <v>7</v>
+      </c>
+      <c r="W108">
+        <v>7</v>
+      </c>
+      <c r="X108">
+        <v>7</v>
+      </c>
+      <c r="Y108">
+        <v>7</v>
+      </c>
+      <c r="Z108">
+        <v>253</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC108">
+        <v>7</v>
+      </c>
+      <c r="AD108">
+        <v>7</v>
+      </c>
+      <c r="AE108">
+        <v>7</v>
+      </c>
+      <c r="AF108">
+        <v>7</v>
+      </c>
+      <c r="AG108">
+        <v>253</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" t="s">
+        <v>67</v>
+      </c>
+      <c r="E109" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" t="s">
+        <v>39</v>
+      </c>
+      <c r="G109" t="s">
+        <v>40</v>
+      </c>
+      <c r="H109">
+        <v>7</v>
+      </c>
+      <c r="I109">
+        <v>7</v>
+      </c>
+      <c r="J109">
+        <v>7</v>
+      </c>
+      <c r="K109">
+        <v>7</v>
+      </c>
+      <c r="L109">
+        <v>253</v>
+      </c>
+      <c r="M109" t="s">
+        <v>41</v>
+      </c>
+      <c r="N109" t="s">
+        <v>42</v>
+      </c>
+      <c r="O109">
+        <v>7</v>
+      </c>
+      <c r="P109">
+        <v>7</v>
+      </c>
+      <c r="Q109">
+        <v>7</v>
+      </c>
+      <c r="R109">
+        <v>7</v>
+      </c>
+      <c r="S109">
+        <v>253</v>
+      </c>
+      <c r="T109" t="s">
+        <v>41</v>
+      </c>
+      <c r="U109" t="s">
+        <v>42</v>
+      </c>
+      <c r="V109">
+        <v>7</v>
+      </c>
+      <c r="W109">
+        <v>7</v>
+      </c>
+      <c r="X109">
+        <v>7</v>
+      </c>
+      <c r="Y109">
+        <v>7</v>
+      </c>
+      <c r="Z109">
+        <v>253</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC109">
+        <v>7</v>
+      </c>
+      <c r="AD109">
+        <v>7</v>
+      </c>
+      <c r="AE109">
+        <v>7</v>
+      </c>
+      <c r="AF109">
+        <v>7</v>
+      </c>
+      <c r="AG109">
+        <v>253</v>
+      </c>
+      <c r="AH109" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C110" t="s">
+        <v>70</v>
+      </c>
+      <c r="E110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G110" t="s">
+        <v>40</v>
+      </c>
+      <c r="H110">
+        <v>7</v>
+      </c>
+      <c r="I110">
+        <v>7</v>
+      </c>
+      <c r="J110">
+        <v>7</v>
+      </c>
+      <c r="K110">
+        <v>7</v>
+      </c>
+      <c r="L110">
+        <v>253</v>
+      </c>
+      <c r="M110" t="s">
+        <v>41</v>
+      </c>
+      <c r="N110" t="s">
+        <v>42</v>
+      </c>
+      <c r="O110">
+        <v>7</v>
+      </c>
+      <c r="P110">
+        <v>7</v>
+      </c>
+      <c r="Q110">
+        <v>7</v>
+      </c>
+      <c r="R110">
+        <v>7</v>
+      </c>
+      <c r="S110">
+        <v>253</v>
+      </c>
+      <c r="T110" t="s">
+        <v>41</v>
+      </c>
+      <c r="U110" t="s">
+        <v>42</v>
+      </c>
+      <c r="V110">
+        <v>7</v>
+      </c>
+      <c r="W110">
+        <v>7</v>
+      </c>
+      <c r="X110">
+        <v>7</v>
+      </c>
+      <c r="Y110">
+        <v>7</v>
+      </c>
+      <c r="Z110">
+        <v>253</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC110">
+        <v>7</v>
+      </c>
+      <c r="AD110">
+        <v>7</v>
+      </c>
+      <c r="AE110">
+        <v>7</v>
+      </c>
+      <c r="AF110">
+        <v>7</v>
+      </c>
+      <c r="AG110">
+        <v>253</v>
+      </c>
+      <c r="AH110" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111">
+        <v>2638</v>
+      </c>
+      <c r="E111" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" t="s">
+        <v>39</v>
+      </c>
+      <c r="G111" t="s">
+        <v>40</v>
+      </c>
+      <c r="H111">
+        <v>7</v>
+      </c>
+      <c r="I111">
+        <v>7</v>
+      </c>
+      <c r="J111">
+        <v>7</v>
+      </c>
+      <c r="K111">
+        <v>7</v>
+      </c>
+      <c r="L111">
+        <v>253</v>
+      </c>
+      <c r="M111" t="s">
+        <v>41</v>
+      </c>
+      <c r="N111" t="s">
+        <v>42</v>
+      </c>
+      <c r="O111">
+        <v>7</v>
+      </c>
+      <c r="P111">
+        <v>7</v>
+      </c>
+      <c r="Q111">
+        <v>7</v>
+      </c>
+      <c r="R111">
+        <v>7</v>
+      </c>
+      <c r="S111">
+        <v>253</v>
+      </c>
+      <c r="T111" t="s">
+        <v>41</v>
+      </c>
+      <c r="U111" t="s">
+        <v>42</v>
+      </c>
+      <c r="V111">
+        <v>7</v>
+      </c>
+      <c r="W111">
+        <v>7</v>
+      </c>
+      <c r="X111">
+        <v>7</v>
+      </c>
+      <c r="Y111">
+        <v>7</v>
+      </c>
+      <c r="Z111">
+        <v>253</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC111">
+        <v>7</v>
+      </c>
+      <c r="AD111">
+        <v>7</v>
+      </c>
+      <c r="AE111">
+        <v>7</v>
+      </c>
+      <c r="AF111">
+        <v>7</v>
+      </c>
+      <c r="AG111">
+        <v>253</v>
+      </c>
+      <c r="AH111" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112">
+        <v>2638</v>
+      </c>
+      <c r="E112" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" t="s">
+        <v>40</v>
+      </c>
+      <c r="H112">
+        <v>7</v>
+      </c>
+      <c r="I112">
+        <v>7</v>
+      </c>
+      <c r="J112">
+        <v>7</v>
+      </c>
+      <c r="K112">
+        <v>7</v>
+      </c>
+      <c r="L112">
+        <v>253</v>
+      </c>
+      <c r="M112" t="s">
+        <v>41</v>
+      </c>
+      <c r="N112" t="s">
+        <v>42</v>
+      </c>
+      <c r="O112">
+        <v>7</v>
+      </c>
+      <c r="P112">
+        <v>7</v>
+      </c>
+      <c r="Q112">
+        <v>7</v>
+      </c>
+      <c r="R112">
+        <v>7</v>
+      </c>
+      <c r="S112">
+        <v>253</v>
+      </c>
+      <c r="T112" t="s">
+        <v>41</v>
+      </c>
+      <c r="U112" t="s">
+        <v>42</v>
+      </c>
+      <c r="V112">
+        <v>7</v>
+      </c>
+      <c r="W112">
+        <v>7</v>
+      </c>
+      <c r="X112">
+        <v>7</v>
+      </c>
+      <c r="Y112">
+        <v>7</v>
+      </c>
+      <c r="Z112">
+        <v>253</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC112">
+        <v>7</v>
+      </c>
+      <c r="AD112">
+        <v>7</v>
+      </c>
+      <c r="AE112">
+        <v>7</v>
+      </c>
+      <c r="AF112">
+        <v>7</v>
+      </c>
+      <c r="AG112">
+        <v>253</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113">
+        <v>2638</v>
+      </c>
+      <c r="E113" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" t="s">
+        <v>39</v>
+      </c>
+      <c r="G113" t="s">
+        <v>40</v>
+      </c>
+      <c r="H113">
+        <v>7</v>
+      </c>
+      <c r="I113">
+        <v>7</v>
+      </c>
+      <c r="J113">
+        <v>7</v>
+      </c>
+      <c r="K113">
+        <v>7</v>
+      </c>
+      <c r="L113">
+        <v>253</v>
+      </c>
+      <c r="M113" t="s">
+        <v>41</v>
+      </c>
+      <c r="N113" t="s">
+        <v>42</v>
+      </c>
+      <c r="O113">
+        <v>7</v>
+      </c>
+      <c r="P113">
+        <v>7</v>
+      </c>
+      <c r="Q113">
+        <v>7</v>
+      </c>
+      <c r="R113">
+        <v>7</v>
+      </c>
+      <c r="S113">
+        <v>253</v>
+      </c>
+      <c r="T113" t="s">
+        <v>41</v>
+      </c>
+      <c r="U113" t="s">
+        <v>42</v>
+      </c>
+      <c r="V113">
+        <v>7</v>
+      </c>
+      <c r="W113">
+        <v>7</v>
+      </c>
+      <c r="X113">
+        <v>7</v>
+      </c>
+      <c r="Y113">
+        <v>7</v>
+      </c>
+      <c r="Z113">
+        <v>253</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC113">
+        <v>7</v>
+      </c>
+      <c r="AD113">
+        <v>7</v>
+      </c>
+      <c r="AE113">
+        <v>7</v>
+      </c>
+      <c r="AF113">
+        <v>7</v>
+      </c>
+      <c r="AG113">
+        <v>253</v>
+      </c>
+      <c r="AH113" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114">
+        <v>2638</v>
+      </c>
+      <c r="E114" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" t="s">
+        <v>39</v>
+      </c>
+      <c r="G114" t="s">
+        <v>40</v>
+      </c>
+      <c r="H114">
+        <v>7</v>
+      </c>
+      <c r="I114">
+        <v>7</v>
+      </c>
+      <c r="J114">
+        <v>7</v>
+      </c>
+      <c r="K114">
+        <v>7</v>
+      </c>
+      <c r="L114">
+        <v>253</v>
+      </c>
+      <c r="M114" t="s">
+        <v>41</v>
+      </c>
+      <c r="N114" t="s">
+        <v>42</v>
+      </c>
+      <c r="O114">
+        <v>7</v>
+      </c>
+      <c r="P114">
+        <v>7</v>
+      </c>
+      <c r="Q114">
+        <v>7</v>
+      </c>
+      <c r="R114">
+        <v>7</v>
+      </c>
+      <c r="S114">
+        <v>253</v>
+      </c>
+      <c r="T114" t="s">
+        <v>41</v>
+      </c>
+      <c r="U114" t="s">
+        <v>42</v>
+      </c>
+      <c r="V114">
+        <v>7</v>
+      </c>
+      <c r="W114">
+        <v>7</v>
+      </c>
+      <c r="X114">
+        <v>7</v>
+      </c>
+      <c r="Y114">
+        <v>7</v>
+      </c>
+      <c r="Z114">
+        <v>253</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC114">
+        <v>7</v>
+      </c>
+      <c r="AD114">
+        <v>7</v>
+      </c>
+      <c r="AE114">
+        <v>7</v>
+      </c>
+      <c r="AF114">
+        <v>7</v>
+      </c>
+      <c r="AG114">
+        <v>253</v>
+      </c>
+      <c r="AH114" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B115">
+        <v>2640</v>
+      </c>
+      <c r="C115" t="s">
+        <v>44</v>
+      </c>
+      <c r="D115">
+        <v>2637</v>
+      </c>
+      <c r="E115" t="s">
+        <v>38</v>
+      </c>
+      <c r="F115" t="s">
+        <v>39</v>
+      </c>
+      <c r="G115" t="s">
+        <v>40</v>
+      </c>
+      <c r="H115">
+        <v>7</v>
+      </c>
+      <c r="I115">
+        <v>7</v>
+      </c>
+      <c r="J115">
+        <v>7</v>
+      </c>
+      <c r="K115">
+        <v>7</v>
+      </c>
+      <c r="L115">
+        <v>253</v>
+      </c>
+      <c r="M115" t="s">
+        <v>41</v>
+      </c>
+      <c r="N115" t="s">
+        <v>42</v>
+      </c>
+      <c r="O115">
+        <v>7</v>
+      </c>
+      <c r="P115">
+        <v>7</v>
+      </c>
+      <c r="Q115">
+        <v>7</v>
+      </c>
+      <c r="R115">
+        <v>7</v>
+      </c>
+      <c r="S115">
+        <v>253</v>
+      </c>
+      <c r="T115" t="s">
+        <v>41</v>
+      </c>
+      <c r="U115" t="s">
+        <v>42</v>
+      </c>
+      <c r="V115">
+        <v>7</v>
+      </c>
+      <c r="W115">
+        <v>7</v>
+      </c>
+      <c r="X115">
+        <v>7</v>
+      </c>
+      <c r="Y115">
+        <v>7</v>
+      </c>
+      <c r="Z115">
+        <v>253</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC115">
+        <v>7</v>
+      </c>
+      <c r="AD115">
+        <v>7</v>
+      </c>
+      <c r="AE115">
+        <v>7</v>
+      </c>
+      <c r="AF115">
+        <v>7</v>
+      </c>
+      <c r="AG115">
+        <v>253</v>
+      </c>
+      <c r="AH115" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116">
+        <v>4101</v>
+      </c>
+      <c r="C116" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116">
+        <v>2637</v>
+      </c>
+      <c r="E116" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" t="s">
+        <v>39</v>
+      </c>
+      <c r="G116" t="s">
+        <v>40</v>
+      </c>
+      <c r="H116">
+        <v>7</v>
+      </c>
+      <c r="I116">
+        <v>7</v>
+      </c>
+      <c r="J116">
+        <v>7</v>
+      </c>
+      <c r="K116">
+        <v>7</v>
+      </c>
+      <c r="L116">
+        <v>253</v>
+      </c>
+      <c r="M116" t="s">
+        <v>41</v>
+      </c>
+      <c r="N116" t="s">
+        <v>42</v>
+      </c>
+      <c r="O116">
+        <v>7</v>
+      </c>
+      <c r="P116">
+        <v>7</v>
+      </c>
+      <c r="Q116">
+        <v>7</v>
+      </c>
+      <c r="R116">
+        <v>7</v>
+      </c>
+      <c r="S116">
+        <v>253</v>
+      </c>
+      <c r="T116" t="s">
+        <v>41</v>
+      </c>
+      <c r="U116" t="s">
+        <v>42</v>
+      </c>
+      <c r="V116">
+        <v>7</v>
+      </c>
+      <c r="W116">
+        <v>7</v>
+      </c>
+      <c r="X116">
+        <v>7</v>
+      </c>
+      <c r="Y116">
+        <v>7</v>
+      </c>
+      <c r="Z116">
+        <v>253</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC116">
+        <v>7</v>
+      </c>
+      <c r="AD116">
+        <v>7</v>
+      </c>
+      <c r="AE116">
+        <v>7</v>
+      </c>
+      <c r="AF116">
+        <v>7</v>
+      </c>
+      <c r="AG116">
+        <v>253</v>
+      </c>
+      <c r="AH116" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" t="s">
+        <v>56</v>
+      </c>
+      <c r="D117">
+        <v>2637</v>
+      </c>
+      <c r="E117" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" t="s">
+        <v>40</v>
+      </c>
+      <c r="H117">
+        <v>7</v>
+      </c>
+      <c r="I117">
+        <v>7</v>
+      </c>
+      <c r="J117">
+        <v>7</v>
+      </c>
+      <c r="K117">
+        <v>7</v>
+      </c>
+      <c r="L117">
+        <v>253</v>
+      </c>
+      <c r="M117" t="s">
+        <v>41</v>
+      </c>
+      <c r="N117" t="s">
+        <v>42</v>
+      </c>
+      <c r="O117">
+        <v>7</v>
+      </c>
+      <c r="P117">
+        <v>7</v>
+      </c>
+      <c r="Q117">
+        <v>7</v>
+      </c>
+      <c r="R117">
+        <v>7</v>
+      </c>
+      <c r="S117">
+        <v>253</v>
+      </c>
+      <c r="T117" t="s">
+        <v>41</v>
+      </c>
+      <c r="U117" t="s">
+        <v>42</v>
+      </c>
+      <c r="V117">
+        <v>7</v>
+      </c>
+      <c r="W117">
+        <v>7</v>
+      </c>
+      <c r="X117">
+        <v>7</v>
+      </c>
+      <c r="Y117">
+        <v>7</v>
+      </c>
+      <c r="Z117">
+        <v>253</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC117">
+        <v>7</v>
+      </c>
+      <c r="AD117">
+        <v>7</v>
+      </c>
+      <c r="AE117">
+        <v>7</v>
+      </c>
+      <c r="AF117">
+        <v>7</v>
+      </c>
+      <c r="AG117">
+        <v>253</v>
+      </c>
+      <c r="AH117" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B118">
+        <v>2948</v>
+      </c>
+      <c r="C118" t="s">
+        <v>179</v>
+      </c>
+      <c r="E118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" t="s">
+        <v>39</v>
+      </c>
+      <c r="G118" t="s">
+        <v>40</v>
+      </c>
+      <c r="H118">
+        <v>160</v>
+      </c>
+      <c r="I118">
+        <v>162</v>
+      </c>
+      <c r="J118">
+        <v>7</v>
+      </c>
+      <c r="K118">
+        <v>7</v>
+      </c>
+      <c r="L118">
+        <v>253</v>
+      </c>
+      <c r="M118" t="s">
+        <v>41</v>
+      </c>
+      <c r="N118" t="s">
+        <v>42</v>
+      </c>
+      <c r="O118">
+        <v>160</v>
+      </c>
+      <c r="P118">
+        <v>162</v>
+      </c>
+      <c r="Q118">
+        <v>7</v>
+      </c>
+      <c r="R118">
+        <v>7</v>
+      </c>
+      <c r="S118">
+        <v>253</v>
+      </c>
+      <c r="T118" t="s">
+        <v>41</v>
+      </c>
+      <c r="U118" t="s">
+        <v>42</v>
+      </c>
+      <c r="V118">
+        <v>160</v>
+      </c>
+      <c r="W118">
+        <v>162</v>
+      </c>
+      <c r="X118">
+        <v>7</v>
+      </c>
+      <c r="Y118">
+        <v>7</v>
+      </c>
+      <c r="Z118">
+        <v>253</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC118">
+        <v>160</v>
+      </c>
+      <c r="AD118">
+        <v>162</v>
+      </c>
+      <c r="AE118">
+        <v>7</v>
+      </c>
+      <c r="AF118">
+        <v>7</v>
+      </c>
+      <c r="AG118">
+        <v>253</v>
+      </c>
+      <c r="AH118" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ100" xr:uid="{8BE88145-C812-4B09-B39B-D607FE3974EC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ100">
-      <sortCondition ref="C1:C100"/>
+  <autoFilter ref="A1:AJ118" xr:uid="{2D7250C5-C522-4468-BA1C-776D83331767}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ118">
+      <sortCondition ref="C1:C118"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
